--- a/Report/do an.xlsx
+++ b/Report/do an.xlsx
@@ -10,7 +10,9 @@
     <sheet state="visible" name="phí cho bốc vác" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="tính toán các loại phí" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="Estimate" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="phí đóng gói" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="Sheet3" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="Sheet4" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="phí đóng gói" sheetId="10" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">Estimate!$A$1:$E$32</definedName>
@@ -18,14 +20,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="QksEy6ATAxFwfK6f3u9Yyg4slWSwXADlKGrKji1mf1g="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataChecksum="78WcQWzp+D3WakRCXwqvaTKxQ7mTrPe0tJYCj983S+8="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="470">
   <si>
     <t>Nhập: số tầng, loại nhà, diện tích và số phòng</t>
   </si>
@@ -1921,6 +1923,9 @@
     </r>
   </si>
   <si>
+    <t>sssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssss</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -1944,7 +1949,7 @@
     <t>4 tầng = 120,000 VND + 20% (24,000 VND) = 144,000 VND.</t>
   </si>
   <si>
-    <t>5 tầng = 144,000 VND + 20% (28,800) = 172,800 VND.</t>
+    <t>5 tầng = 144,000 VND + 20% (24,000) = 168,000 VND.</t>
   </si>
   <si>
     <t>5+</t>
@@ -1984,6 +1989,7 @@
       <rPr>
         <rFont val="Calibri"/>
         <b/>
+        <strike/>
         <color theme="1"/>
         <sz val="14.0"/>
       </rPr>
@@ -1993,6 +1999,7 @@
       <rPr>
         <rFont val="Calibri"/>
         <b/>
+        <strike/>
         <color theme="1"/>
         <sz val="14.0"/>
       </rPr>
@@ -2004,6 +2011,7 @@
       <rPr>
         <rFont val="Calibri"/>
         <b/>
+        <strike/>
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
@@ -2013,6 +2021,7 @@
       <rPr>
         <rFont val="Calibri"/>
         <b val="0"/>
+        <strike/>
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
@@ -2030,6 +2039,7 @@
       <rPr>
         <rFont val="Calibri"/>
         <b/>
+        <strike/>
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
@@ -2039,6 +2049,7 @@
       <rPr>
         <rFont val="Calibri"/>
         <b val="0"/>
+        <strike/>
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
@@ -2049,30 +2060,14 @@
     <t>Với mỗi món đồ có kích thước hoặc trọng lượng vượt quá giới hạn tiêu chuẩn, người bốc xếp có thể áp dụng phụ phí bổ sung, ví dụ 10,000 VND cho mỗi 10 kg vượt quá.</t>
   </si>
   <si>
+    <t>3. Sử dụng dụng cụ bốc vác sẵn:</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
         <b/>
-        <color theme="1"/>
-        <sz val="14.0"/>
-      </rPr>
-      <t xml:space="preserve">3. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="14.0"/>
-      </rPr>
-      <t>Sử dụng dụng cụ bốc vác sẵn:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
+        <strike/>
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
@@ -2082,6 +2077,7 @@
       <rPr>
         <rFont val="Calibri"/>
         <b val="0"/>
+        <strike/>
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
@@ -2098,24 +2094,7 @@
     <t>Tuy nhiên, cần kiểm tra chất lượng dụng cụ để đảm bảo an toàn. Nếu không đạt yêu cầu, khách hàng có thể được tư vấn thuê dụng cụ chuyên nghiệp.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="14.0"/>
-      </rPr>
-      <t xml:space="preserve">4. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="14.0"/>
-      </rPr>
-      <t>Xử lý đồ cồng kềnh ở tầng cao:</t>
-    </r>
+    <t>4. Xử lý đồ cồng kềnh ở tầng cao:</t>
   </si>
   <si>
     <r>
@@ -2141,13 +2120,16 @@
     <t>Tính thêm phụ phí cao hơn cho mỗi tầng.</t>
   </si>
   <si>
-    <t>Ví dụ: Nếu bình thường là 25% cho mỗi tầng từ 4 đến 5, thì với đồ cồng kềnh có thể tăng lên 30% - 40%.</t>
+    <t>Ví dụ: Nếu bình thường là 25% cho mỗi tầng từ 4 đến 5, thì với đồ cồng kềnh có thể tăng lên 30% - 40% cho giá cơ bản của bốc xếp</t>
   </si>
   <si>
     <t>Nếu cần phải tháo lắp đồ để di chuyển qua cửa, hành lang chật hẹp, có thể áp dụng thêm phí dịch vụ tháo lắp.</t>
   </si>
   <si>
     <t>5. Các phí khác:</t>
+  </si>
+  <si>
+    <t>dịch vụ</t>
   </si>
   <si>
     <r>
@@ -2332,7 +2314,10 @@
     <t xml:space="preserve">Trả lời: </t>
   </si>
   <si>
-    <t>phí bốc vác = phí cơ bản theo loại nhà (3 tầng) + 20% của phí cơ bản (trường hợp 4-5 tầng) + 25%  của phí cơ bản (trường hợp 5 tầng trở lên)</t>
+    <t>phí bốc vác = phí cơ bản theo loại nhà (3 tầng) + 20% của phí cơ bản (trường hợp 4-5 tầng) * (số tầng -3) + 25%  của phí cơ bản (trường hợp 5 tầng trở lên) * (số tầng - 5)</t>
+  </si>
+  <si>
+    <t>1 tài xế 1 bốc vác cho nhà riêng</t>
   </si>
   <si>
     <t>Loại nhà</t>
@@ -2350,10 +2335,37 @@
     <t>Trọ</t>
   </si>
   <si>
+    <t>5 tầng</t>
+  </si>
+  <si>
     <t>Gía cơ bản cho tài xế bốc xếp</t>
   </si>
   <si>
+    <t>bốc vác</t>
+  </si>
+  <si>
+    <t>400 + 80 + 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giá cơ bản + (20% của phí cơ bản) * (số tầng - 3) </t>
+  </si>
+  <si>
     <t xml:space="preserve">Gía cơ bản cho bốc xếp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tài xế </t>
+  </si>
+  <si>
+    <t>120 + 24 + 24</t>
+  </si>
+  <si>
+    <t>7 tầng</t>
+  </si>
+  <si>
+    <t>400 + 80* 2 + 100*2</t>
+  </si>
+  <si>
+    <t>giá cơ bản + (20% của phí cơ bản) * (số tầng - 3) + (25% của phí cơ bản * (số tầng - 5)</t>
   </si>
   <si>
     <t>làm sao dựa trên loại xe và km lấy ra dc phí di chuyển</t>
@@ -2576,6 +2588,202 @@
   </si>
   <si>
     <t>Nhà trọ</t>
+  </si>
+  <si>
+    <t>admin: quản lý user (crud user)</t>
+  </si>
+  <si>
+    <t>manager: quản lý bôi thường</t>
+  </si>
+  <si>
+    <t>customer: booking, payment for booking, deposit, recharge, tracking real-time,  view service, cancel booking, contact with staff, edit profile, view profile,</t>
+  </si>
+  <si>
+    <t>Phân rạch ròi 3 staff: driver, potter, reviewer</t>
+  </si>
+  <si>
+    <t>toàn bộ 5tr cọc trước 2tr (đã bao gồm phí di chuyển review)</t>
+  </si>
+  <si>
+    <t>đổi time</t>
+  </si>
+  <si>
+    <t>đang tìm</t>
+  </si>
+  <si>
+    <t>đã tìm thấy (assign)</t>
+  </si>
+  <si>
+    <t>đã đến</t>
+  </si>
+  <si>
+    <t>OK ĐỔI NGÀY</t>
+  </si>
+  <si>
+    <t>OK ĐỔI</t>
+  </si>
+  <si>
+    <t>(TH1: review đã review ko trừ)</t>
+  </si>
+  <si>
+    <t>(TH2: CUS DC ĐỔI 1 LẦN khi đã liên lạc dc review)</t>
+  </si>
+  <si>
+    <t>(TH3: ko liên lạc dc vs cus review sẽ có nút update là chờ trong vòng 3 tiếng, sau 3 tiếng ko có phản hồi từ cus sẽ hủy booking và ăn tiền cọc)</t>
+  </si>
+  <si>
+    <t>ko dc đổi trong trường hợp đã review done</t>
+  </si>
+  <si>
+    <t>tình huống trong lúc vận chuyển xảy ra sự cố:</t>
+  </si>
+  <si>
+    <t>1. lỗi của driver potter thì phải report từ cus hoặc driver hoặc potter thì sẽ đền bù 70% giá trị của đồ vật</t>
+  </si>
+  <si>
+    <t>2. lỗi cus khi ko chụp đầy đủ hình ảnh  thì khi driver tới nếu chở ko đủ 1 lần sẽ update đi lần 2 hoặc đổi xe</t>
+  </si>
+  <si>
+    <t>hỏi cô làm thế nào để xác thực cái order của customer</t>
+  </si>
+  <si>
+    <t>1. CÓ REVIEW TỚI</t>
+  </si>
+  <si>
+    <t>ƯU</t>
+  </si>
+  <si>
+    <t>XÁC THỰC CAO, CONNECT TRỰC TIẾP CUS, LINH HOẠT SETTING</t>
+  </si>
+  <si>
+    <t>NHƯỢC</t>
+  </si>
+  <si>
+    <t>TỐN TIME, TỐN RESOURCE</t>
+  </si>
+  <si>
+    <t>2. REVIEW QUA ẢNH VIDEO CUS CUNG CẤP</t>
+  </si>
+  <si>
+    <t>ÍT TỐN RESOURCE, USER KO CẦN ĐỢI REVIEW -&gt; BƯỚC XE TỚI, GIẢM THIỂU THỜI GIAN CUS TẬP TRUNG VÀO 1 BOOKING</t>
+  </si>
+  <si>
+    <t>KO XÁC THỰC, CHƯA CHẮC CONNECT 24/7 CUS PHẢI ĐỢI REVIEW ACCEPT</t>
+  </si>
+  <si>
+    <t>duyệt -&gt; update -&gt; cho user confirm -&gt; nếu ko ok thì mới chat mới alo</t>
+  </si>
+  <si>
+    <t>Đi theo flow kh chọn ngày giờ, nơi đi và đến  -&gt; upload hình ảnh, video đồ vật -&gt; chọn xe -&gt; chọn dịch vụ -&gt; màn hình xử lý -&gt; deposit -&gt; tracking -&gt; done -&gt; payment</t>
+  </si>
+  <si>
+    <t>xử lý: review có kinh nghiệm xử lý đưa ra cho kh xe dịch vụ hợp lý hơn -&gt; gửi noti cho khách hàng -&gt; màn hình (3 nút: Đồng ý, Hủy, Liên lạc với reviewer qua nhắn gọi điện trong app)</t>
+  </si>
+  <si>
+    <t>trường hợp booking liền</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đang tìm tài xế </t>
+  </si>
+  <si>
+    <t>đổi ngày 1 lần miễn phí nhưng phải do driver hoặc potter ở đó report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hủy dịch vụ </t>
+  </si>
+  <si>
+    <t>HỦY</t>
+  </si>
+  <si>
+    <t>HỦY thì hệ thống 
+lấy tiền cọc</t>
+  </si>
+  <si>
+    <t>trường hợp đặt ngày đến</t>
+  </si>
+  <si>
+    <t>cũng sẽ cho review -&gt; kh confirm ở đây done sẽ tiến hành tìm kiếm và hiển thị thông tin tài xế trước 1 tiếng</t>
+  </si>
+  <si>
+    <t>1. Phân loại phí:</t>
+  </si>
+  <si>
+    <t>Phí chung (Common Fees):</t>
+  </si>
+  <si>
+    <t>Đây là các loại phí cố định và không bị ảnh hưởng bởi ngày lễ, cuối tuần hay ngoài giờ làm việc: Phí di chuyển, phí bốc vác, phí thuê xe.</t>
+  </si>
+  <si>
+    <t>Phí đặc thù (Special Fees):</t>
+  </si>
+  <si>
+    <t>Các khoản phí thay đổi tùy thuộc vào ngày trong tuần, ngày lễ, hoặc thời gian làm việc ngoài giờ: Phí cuối tuần, phí ngày lễ, phí ngoài giờ.</t>
+  </si>
+  <si>
+    <t>2. Quy tắc điều chỉnh phí:</t>
+  </si>
+  <si>
+    <t>Ngày lễ (Holiday Fees):</t>
+  </si>
+  <si>
+    <t>Tăng phí theo phần trăm: Tăng phần trăm chi phí tổng dịch vụ: +20% vào tổng chi phí khi chọn ngày lễ.</t>
+  </si>
+  <si>
+    <t>Cuối tuần (Weekend Fees):</t>
+  </si>
+  <si>
+    <t>Tăng phí theo phần trăm: +10% cho tất cả dịch vụ vào cuối tuần.</t>
+  </si>
+  <si>
+    <t>Ngoài giờ làm việc (Overtime Fees):</t>
+  </si>
+  <si>
+    <t>Tăng phí theo phần trăm: Phí tăng thêm 20% dựa trên khung thời gian ngoài giờ từ 6 giờ tối đến 6 giờ sáng</t>
+  </si>
+  <si>
+    <t>3. Rule logic cho tính toán:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>Kiểm tra loại ngày:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve"> Hệ thống sẽ kiểm tra xem ngày booking có rơi vào cuối tuần hoặc ngày lễ hay không.</t>
+    </r>
+  </si>
+  <si>
+    <t>Nếu có: Áp dụng công thức tính phí tương ứng (tăng phần trăm).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>Kiểm tra thời gian làm việc:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve"> Hệ thống cũng kiểm tra xem thời gian booking có ngoài khung giờ làm việc hay không.</t>
+    </r>
+  </si>
+  <si>
+    <t>Nếu ngoài giờ: Thêm khoản phí ngoài giờ % vào tổng phí.</t>
   </si>
   <si>
     <t>Phí Đóng Gói</t>
@@ -2869,7 +3077,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="19">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d-m"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -2959,6 +3170,32 @@
     </font>
     <font>
       <sz val="14.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="14.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <strike/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -3326,7 +3563,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="103">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -3510,8 +3747,26 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
@@ -3531,19 +3786,22 @@
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3608,6 +3866,12 @@
     </xf>
     <xf borderId="28" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3674,7 +3938,7 @@
     <xdr:ext cx="876300" cy="676275"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3758,7 +4022,7 @@
     <xdr:ext cx="5391150" cy="771525"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3786,7 +4050,7 @@
     <xdr:ext cx="5238750" cy="676275"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3807,6 +4071,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
@@ -3819,7 +4087,7 @@
     <xdr:ext cx="4171950" cy="2686050"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png"/>
+        <xdr:cNvPr id="0" name="image8.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3847,7 +4115,7 @@
     <xdr:ext cx="3124200" cy="2686050"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png"/>
+        <xdr:cNvPr id="0" name="image9.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3875,7 +4143,7 @@
     <xdr:ext cx="4114800" cy="2552700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png"/>
+        <xdr:cNvPr id="0" name="image7.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3903,7 +4171,7 @@
     <xdr:ext cx="4581525" cy="2276475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png"/>
+        <xdr:cNvPr id="0" name="image10.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3931,7 +4199,7 @@
     <xdr:ext cx="3733800" cy="2619375"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png"/>
+        <xdr:cNvPr id="0" name="image6.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3973,6 +4241,10 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -4520,6 +4792,1118 @@
     <row r="79" ht="14.25" customHeight="1">
       <c r="B79" s="8"/>
     </row>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
+    <row r="245" ht="14.25" customHeight="1"/>
+    <row r="246" ht="14.25" customHeight="1"/>
+    <row r="247" ht="14.25" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1"/>
+    <row r="251" ht="14.25" customHeight="1"/>
+    <row r="252" ht="14.25" customHeight="1"/>
+    <row r="253" ht="14.25" customHeight="1"/>
+    <row r="254" ht="14.25" customHeight="1"/>
+    <row r="255" ht="14.25" customHeight="1"/>
+    <row r="256" ht="14.25" customHeight="1"/>
+    <row r="257" ht="14.25" customHeight="1"/>
+    <row r="258" ht="14.25" customHeight="1"/>
+    <row r="259" ht="14.25" customHeight="1"/>
+    <row r="260" ht="14.25" customHeight="1"/>
+    <row r="261" ht="14.25" customHeight="1"/>
+    <row r="262" ht="14.25" customHeight="1"/>
+    <row r="263" ht="14.25" customHeight="1"/>
+    <row r="264" ht="14.25" customHeight="1"/>
+    <row r="265" ht="14.25" customHeight="1"/>
+    <row r="266" ht="14.25" customHeight="1"/>
+    <row r="267" ht="14.25" customHeight="1"/>
+    <row r="268" ht="14.25" customHeight="1"/>
+    <row r="269" ht="14.25" customHeight="1"/>
+    <row r="270" ht="14.25" customHeight="1"/>
+    <row r="271" ht="14.25" customHeight="1"/>
+    <row r="272" ht="14.25" customHeight="1"/>
+    <row r="273" ht="14.25" customHeight="1"/>
+    <row r="274" ht="14.25" customHeight="1"/>
+    <row r="275" ht="14.25" customHeight="1"/>
+    <row r="276" ht="14.25" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1"/>
+    <row r="278" ht="14.25" customHeight="1"/>
+    <row r="279" ht="14.25" customHeight="1"/>
+    <row r="280" ht="14.25" customHeight="1"/>
+    <row r="281" ht="14.25" customHeight="1"/>
+    <row r="282" ht="14.25" customHeight="1"/>
+    <row r="283" ht="14.25" customHeight="1"/>
+    <row r="284" ht="14.25" customHeight="1"/>
+    <row r="285" ht="14.25" customHeight="1"/>
+    <row r="286" ht="14.25" customHeight="1"/>
+    <row r="287" ht="14.25" customHeight="1"/>
+    <row r="288" ht="14.25" customHeight="1"/>
+    <row r="289" ht="14.25" customHeight="1"/>
+    <row r="290" ht="14.25" customHeight="1"/>
+    <row r="291" ht="14.25" customHeight="1"/>
+    <row r="292" ht="14.25" customHeight="1"/>
+    <row r="293" ht="14.25" customHeight="1"/>
+    <row r="294" ht="14.25" customHeight="1"/>
+    <row r="295" ht="14.25" customHeight="1"/>
+    <row r="296" ht="14.25" customHeight="1"/>
+    <row r="297" ht="14.25" customHeight="1"/>
+    <row r="298" ht="14.25" customHeight="1"/>
+    <row r="299" ht="14.25" customHeight="1"/>
+    <row r="300" ht="14.25" customHeight="1"/>
+    <row r="301" ht="14.25" customHeight="1"/>
+    <row r="302" ht="14.25" customHeight="1"/>
+    <row r="303" ht="14.25" customHeight="1"/>
+    <row r="304" ht="14.25" customHeight="1"/>
+    <row r="305" ht="14.25" customHeight="1"/>
+    <row r="306" ht="14.25" customHeight="1"/>
+    <row r="307" ht="14.25" customHeight="1"/>
+    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="309" ht="14.25" customHeight="1"/>
+    <row r="310" ht="14.25" customHeight="1"/>
+    <row r="311" ht="14.25" customHeight="1"/>
+    <row r="312" ht="14.25" customHeight="1"/>
+    <row r="313" ht="14.25" customHeight="1"/>
+    <row r="314" ht="14.25" customHeight="1"/>
+    <row r="315" ht="14.25" customHeight="1"/>
+    <row r="316" ht="14.25" customHeight="1"/>
+    <row r="317" ht="14.25" customHeight="1"/>
+    <row r="318" ht="14.25" customHeight="1"/>
+    <row r="319" ht="14.25" customHeight="1"/>
+    <row r="320" ht="14.25" customHeight="1"/>
+    <row r="321" ht="14.25" customHeight="1"/>
+    <row r="322" ht="14.25" customHeight="1"/>
+    <row r="323" ht="14.25" customHeight="1"/>
+    <row r="324" ht="14.25" customHeight="1"/>
+    <row r="325" ht="14.25" customHeight="1"/>
+    <row r="326" ht="14.25" customHeight="1"/>
+    <row r="327" ht="14.25" customHeight="1"/>
+    <row r="328" ht="14.25" customHeight="1"/>
+    <row r="329" ht="14.25" customHeight="1"/>
+    <row r="330" ht="14.25" customHeight="1"/>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
+    <row r="369" ht="14.25" customHeight="1"/>
+    <row r="370" ht="14.25" customHeight="1"/>
+    <row r="371" ht="14.25" customHeight="1"/>
+    <row r="372" ht="14.25" customHeight="1"/>
+    <row r="373" ht="14.25" customHeight="1"/>
+    <row r="374" ht="14.25" customHeight="1"/>
+    <row r="375" ht="14.25" customHeight="1"/>
+    <row r="376" ht="14.25" customHeight="1"/>
+    <row r="377" ht="14.25" customHeight="1"/>
+    <row r="378" ht="14.25" customHeight="1"/>
+    <row r="379" ht="14.25" customHeight="1"/>
+    <row r="380" ht="14.25" customHeight="1"/>
+    <row r="381" ht="14.25" customHeight="1"/>
+    <row r="382" ht="14.25" customHeight="1"/>
+    <row r="383" ht="14.25" customHeight="1"/>
+    <row r="384" ht="14.25" customHeight="1"/>
+    <row r="385" ht="14.25" customHeight="1"/>
+    <row r="386" ht="14.25" customHeight="1"/>
+    <row r="387" ht="14.25" customHeight="1"/>
+    <row r="388" ht="14.25" customHeight="1"/>
+    <row r="389" ht="14.25" customHeight="1"/>
+    <row r="390" ht="14.25" customHeight="1"/>
+    <row r="391" ht="14.25" customHeight="1"/>
+    <row r="392" ht="14.25" customHeight="1"/>
+    <row r="393" ht="14.25" customHeight="1"/>
+    <row r="394" ht="14.25" customHeight="1"/>
+    <row r="395" ht="14.25" customHeight="1"/>
+    <row r="396" ht="14.25" customHeight="1"/>
+    <row r="397" ht="14.25" customHeight="1"/>
+    <row r="398" ht="14.25" customHeight="1"/>
+    <row r="399" ht="14.25" customHeight="1"/>
+    <row r="400" ht="14.25" customHeight="1"/>
+    <row r="401" ht="14.25" customHeight="1"/>
+    <row r="402" ht="14.25" customHeight="1"/>
+    <row r="403" ht="14.25" customHeight="1"/>
+    <row r="404" ht="14.25" customHeight="1"/>
+    <row r="405" ht="14.25" customHeight="1"/>
+    <row r="406" ht="14.25" customHeight="1"/>
+    <row r="407" ht="14.25" customHeight="1"/>
+    <row r="408" ht="14.25" customHeight="1"/>
+    <row r="409" ht="14.25" customHeight="1"/>
+    <row r="410" ht="14.25" customHeight="1"/>
+    <row r="411" ht="14.25" customHeight="1"/>
+    <row r="412" ht="14.25" customHeight="1"/>
+    <row r="413" ht="14.25" customHeight="1"/>
+    <row r="414" ht="14.25" customHeight="1"/>
+    <row r="415" ht="14.25" customHeight="1"/>
+    <row r="416" ht="14.25" customHeight="1"/>
+    <row r="417" ht="14.25" customHeight="1"/>
+    <row r="418" ht="14.25" customHeight="1"/>
+    <row r="419" ht="14.25" customHeight="1"/>
+    <row r="420" ht="14.25" customHeight="1"/>
+    <row r="421" ht="14.25" customHeight="1"/>
+    <row r="422" ht="14.25" customHeight="1"/>
+    <row r="423" ht="14.25" customHeight="1"/>
+    <row r="424" ht="14.25" customHeight="1"/>
+    <row r="425" ht="14.25" customHeight="1"/>
+    <row r="426" ht="14.25" customHeight="1"/>
+    <row r="427" ht="14.25" customHeight="1"/>
+    <row r="428" ht="14.25" customHeight="1"/>
+    <row r="429" ht="14.25" customHeight="1"/>
+    <row r="430" ht="14.25" customHeight="1"/>
+    <row r="431" ht="14.25" customHeight="1"/>
+    <row r="432" ht="14.25" customHeight="1"/>
+    <row r="433" ht="14.25" customHeight="1"/>
+    <row r="434" ht="14.25" customHeight="1"/>
+    <row r="435" ht="14.25" customHeight="1"/>
+    <row r="436" ht="14.25" customHeight="1"/>
+    <row r="437" ht="14.25" customHeight="1"/>
+    <row r="438" ht="14.25" customHeight="1"/>
+    <row r="439" ht="14.25" customHeight="1"/>
+    <row r="440" ht="14.25" customHeight="1"/>
+    <row r="441" ht="14.25" customHeight="1"/>
+    <row r="442" ht="14.25" customHeight="1"/>
+    <row r="443" ht="14.25" customHeight="1"/>
+    <row r="444" ht="14.25" customHeight="1"/>
+    <row r="445" ht="14.25" customHeight="1"/>
+    <row r="446" ht="14.25" customHeight="1"/>
+    <row r="447" ht="14.25" customHeight="1"/>
+    <row r="448" ht="14.25" customHeight="1"/>
+    <row r="449" ht="14.25" customHeight="1"/>
+    <row r="450" ht="14.25" customHeight="1"/>
+    <row r="451" ht="14.25" customHeight="1"/>
+    <row r="452" ht="14.25" customHeight="1"/>
+    <row r="453" ht="14.25" customHeight="1"/>
+    <row r="454" ht="14.25" customHeight="1"/>
+    <row r="455" ht="14.25" customHeight="1"/>
+    <row r="456" ht="14.25" customHeight="1"/>
+    <row r="457" ht="14.25" customHeight="1"/>
+    <row r="458" ht="14.25" customHeight="1"/>
+    <row r="459" ht="14.25" customHeight="1"/>
+    <row r="460" ht="14.25" customHeight="1"/>
+    <row r="461" ht="14.25" customHeight="1"/>
+    <row r="462" ht="14.25" customHeight="1"/>
+    <row r="463" ht="14.25" customHeight="1"/>
+    <row r="464" ht="14.25" customHeight="1"/>
+    <row r="465" ht="14.25" customHeight="1"/>
+    <row r="466" ht="14.25" customHeight="1"/>
+    <row r="467" ht="14.25" customHeight="1"/>
+    <row r="468" ht="14.25" customHeight="1"/>
+    <row r="469" ht="14.25" customHeight="1"/>
+    <row r="470" ht="14.25" customHeight="1"/>
+    <row r="471" ht="14.25" customHeight="1"/>
+    <row r="472" ht="14.25" customHeight="1"/>
+    <row r="473" ht="14.25" customHeight="1"/>
+    <row r="474" ht="14.25" customHeight="1"/>
+    <row r="475" ht="14.25" customHeight="1"/>
+    <row r="476" ht="14.25" customHeight="1"/>
+    <row r="477" ht="14.25" customHeight="1"/>
+    <row r="478" ht="14.25" customHeight="1"/>
+    <row r="479" ht="14.25" customHeight="1"/>
+    <row r="480" ht="14.25" customHeight="1"/>
+    <row r="481" ht="14.25" customHeight="1"/>
+    <row r="482" ht="14.25" customHeight="1"/>
+    <row r="483" ht="14.25" customHeight="1"/>
+    <row r="484" ht="14.25" customHeight="1"/>
+    <row r="485" ht="14.25" customHeight="1"/>
+    <row r="486" ht="14.25" customHeight="1"/>
+    <row r="487" ht="14.25" customHeight="1"/>
+    <row r="488" ht="14.25" customHeight="1"/>
+    <row r="489" ht="14.25" customHeight="1"/>
+    <row r="490" ht="14.25" customHeight="1"/>
+    <row r="491" ht="14.25" customHeight="1"/>
+    <row r="492" ht="14.25" customHeight="1"/>
+    <row r="493" ht="14.25" customHeight="1"/>
+    <row r="494" ht="14.25" customHeight="1"/>
+    <row r="495" ht="14.25" customHeight="1"/>
+    <row r="496" ht="14.25" customHeight="1"/>
+    <row r="497" ht="14.25" customHeight="1"/>
+    <row r="498" ht="14.25" customHeight="1"/>
+    <row r="499" ht="14.25" customHeight="1"/>
+    <row r="500" ht="14.25" customHeight="1"/>
+    <row r="501" ht="14.25" customHeight="1"/>
+    <row r="502" ht="14.25" customHeight="1"/>
+    <row r="503" ht="14.25" customHeight="1"/>
+    <row r="504" ht="14.25" customHeight="1"/>
+    <row r="505" ht="14.25" customHeight="1"/>
+    <row r="506" ht="14.25" customHeight="1"/>
+    <row r="507" ht="14.25" customHeight="1"/>
+    <row r="508" ht="14.25" customHeight="1"/>
+    <row r="509" ht="14.25" customHeight="1"/>
+    <row r="510" ht="14.25" customHeight="1"/>
+    <row r="511" ht="14.25" customHeight="1"/>
+    <row r="512" ht="14.25" customHeight="1"/>
+    <row r="513" ht="14.25" customHeight="1"/>
+    <row r="514" ht="14.25" customHeight="1"/>
+    <row r="515" ht="14.25" customHeight="1"/>
+    <row r="516" ht="14.25" customHeight="1"/>
+    <row r="517" ht="14.25" customHeight="1"/>
+    <row r="518" ht="14.25" customHeight="1"/>
+    <row r="519" ht="14.25" customHeight="1"/>
+    <row r="520" ht="14.25" customHeight="1"/>
+    <row r="521" ht="14.25" customHeight="1"/>
+    <row r="522" ht="14.25" customHeight="1"/>
+    <row r="523" ht="14.25" customHeight="1"/>
+    <row r="524" ht="14.25" customHeight="1"/>
+    <row r="525" ht="14.25" customHeight="1"/>
+    <row r="526" ht="14.25" customHeight="1"/>
+    <row r="527" ht="14.25" customHeight="1"/>
+    <row r="528" ht="14.25" customHeight="1"/>
+    <row r="529" ht="14.25" customHeight="1"/>
+    <row r="530" ht="14.25" customHeight="1"/>
+    <row r="531" ht="14.25" customHeight="1"/>
+    <row r="532" ht="14.25" customHeight="1"/>
+    <row r="533" ht="14.25" customHeight="1"/>
+    <row r="534" ht="14.25" customHeight="1"/>
+    <row r="535" ht="14.25" customHeight="1"/>
+    <row r="536" ht="14.25" customHeight="1"/>
+    <row r="537" ht="14.25" customHeight="1"/>
+    <row r="538" ht="14.25" customHeight="1"/>
+    <row r="539" ht="14.25" customHeight="1"/>
+    <row r="540" ht="14.25" customHeight="1"/>
+    <row r="541" ht="14.25" customHeight="1"/>
+    <row r="542" ht="14.25" customHeight="1"/>
+    <row r="543" ht="14.25" customHeight="1"/>
+    <row r="544" ht="14.25" customHeight="1"/>
+    <row r="545" ht="14.25" customHeight="1"/>
+    <row r="546" ht="14.25" customHeight="1"/>
+    <row r="547" ht="14.25" customHeight="1"/>
+    <row r="548" ht="14.25" customHeight="1"/>
+    <row r="549" ht="14.25" customHeight="1"/>
+    <row r="550" ht="14.25" customHeight="1"/>
+    <row r="551" ht="14.25" customHeight="1"/>
+    <row r="552" ht="14.25" customHeight="1"/>
+    <row r="553" ht="14.25" customHeight="1"/>
+    <row r="554" ht="14.25" customHeight="1"/>
+    <row r="555" ht="14.25" customHeight="1"/>
+    <row r="556" ht="14.25" customHeight="1"/>
+    <row r="557" ht="14.25" customHeight="1"/>
+    <row r="558" ht="14.25" customHeight="1"/>
+    <row r="559" ht="14.25" customHeight="1"/>
+    <row r="560" ht="14.25" customHeight="1"/>
+    <row r="561" ht="14.25" customHeight="1"/>
+    <row r="562" ht="14.25" customHeight="1"/>
+    <row r="563" ht="14.25" customHeight="1"/>
+    <row r="564" ht="14.25" customHeight="1"/>
+    <row r="565" ht="14.25" customHeight="1"/>
+    <row r="566" ht="14.25" customHeight="1"/>
+    <row r="567" ht="14.25" customHeight="1"/>
+    <row r="568" ht="14.25" customHeight="1"/>
+    <row r="569" ht="14.25" customHeight="1"/>
+    <row r="570" ht="14.25" customHeight="1"/>
+    <row r="571" ht="14.25" customHeight="1"/>
+    <row r="572" ht="14.25" customHeight="1"/>
+    <row r="573" ht="14.25" customHeight="1"/>
+    <row r="574" ht="14.25" customHeight="1"/>
+    <row r="575" ht="14.25" customHeight="1"/>
+    <row r="576" ht="14.25" customHeight="1"/>
+    <row r="577" ht="14.25" customHeight="1"/>
+    <row r="578" ht="14.25" customHeight="1"/>
+    <row r="579" ht="14.25" customHeight="1"/>
+    <row r="580" ht="14.25" customHeight="1"/>
+    <row r="581" ht="14.25" customHeight="1"/>
+    <row r="582" ht="14.25" customHeight="1"/>
+    <row r="583" ht="14.25" customHeight="1"/>
+    <row r="584" ht="14.25" customHeight="1"/>
+    <row r="585" ht="14.25" customHeight="1"/>
+    <row r="586" ht="14.25" customHeight="1"/>
+    <row r="587" ht="14.25" customHeight="1"/>
+    <row r="588" ht="14.25" customHeight="1"/>
+    <row r="589" ht="14.25" customHeight="1"/>
+    <row r="590" ht="14.25" customHeight="1"/>
+    <row r="591" ht="14.25" customHeight="1"/>
+    <row r="592" ht="14.25" customHeight="1"/>
+    <row r="593" ht="14.25" customHeight="1"/>
+    <row r="594" ht="14.25" customHeight="1"/>
+    <row r="595" ht="14.25" customHeight="1"/>
+    <row r="596" ht="14.25" customHeight="1"/>
+    <row r="597" ht="14.25" customHeight="1"/>
+    <row r="598" ht="14.25" customHeight="1"/>
+    <row r="599" ht="14.25" customHeight="1"/>
+    <row r="600" ht="14.25" customHeight="1"/>
+    <row r="601" ht="14.25" customHeight="1"/>
+    <row r="602" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="604" ht="14.25" customHeight="1"/>
+    <row r="605" ht="14.25" customHeight="1"/>
+    <row r="606" ht="14.25" customHeight="1"/>
+    <row r="607" ht="14.25" customHeight="1"/>
+    <row r="608" ht="14.25" customHeight="1"/>
+    <row r="609" ht="14.25" customHeight="1"/>
+    <row r="610" ht="14.25" customHeight="1"/>
+    <row r="611" ht="14.25" customHeight="1"/>
+    <row r="612" ht="14.25" customHeight="1"/>
+    <row r="613" ht="14.25" customHeight="1"/>
+    <row r="614" ht="14.25" customHeight="1"/>
+    <row r="615" ht="14.25" customHeight="1"/>
+    <row r="616" ht="14.25" customHeight="1"/>
+    <row r="617" ht="14.25" customHeight="1"/>
+    <row r="618" ht="14.25" customHeight="1"/>
+    <row r="619" ht="14.25" customHeight="1"/>
+    <row r="620" ht="14.25" customHeight="1"/>
+    <row r="621" ht="14.25" customHeight="1"/>
+    <row r="622" ht="14.25" customHeight="1"/>
+    <row r="623" ht="14.25" customHeight="1"/>
+    <row r="624" ht="14.25" customHeight="1"/>
+    <row r="625" ht="14.25" customHeight="1"/>
+    <row r="626" ht="14.25" customHeight="1"/>
+    <row r="627" ht="14.25" customHeight="1"/>
+    <row r="628" ht="14.25" customHeight="1"/>
+    <row r="629" ht="14.25" customHeight="1"/>
+    <row r="630" ht="14.25" customHeight="1"/>
+    <row r="631" ht="14.25" customHeight="1"/>
+    <row r="632" ht="14.25" customHeight="1"/>
+    <row r="633" ht="14.25" customHeight="1"/>
+    <row r="634" ht="14.25" customHeight="1"/>
+    <row r="635" ht="14.25" customHeight="1"/>
+    <row r="636" ht="14.25" customHeight="1"/>
+    <row r="637" ht="14.25" customHeight="1"/>
+    <row r="638" ht="14.25" customHeight="1"/>
+    <row r="639" ht="14.25" customHeight="1"/>
+    <row r="640" ht="14.25" customHeight="1"/>
+    <row r="641" ht="14.25" customHeight="1"/>
+    <row r="642" ht="14.25" customHeight="1"/>
+    <row r="643" ht="14.25" customHeight="1"/>
+    <row r="644" ht="14.25" customHeight="1"/>
+    <row r="645" ht="14.25" customHeight="1"/>
+    <row r="646" ht="14.25" customHeight="1"/>
+    <row r="647" ht="14.25" customHeight="1"/>
+    <row r="648" ht="14.25" customHeight="1"/>
+    <row r="649" ht="14.25" customHeight="1"/>
+    <row r="650" ht="14.25" customHeight="1"/>
+    <row r="651" ht="14.25" customHeight="1"/>
+    <row r="652" ht="14.25" customHeight="1"/>
+    <row r="653" ht="14.25" customHeight="1"/>
+    <row r="654" ht="14.25" customHeight="1"/>
+    <row r="655" ht="14.25" customHeight="1"/>
+    <row r="656" ht="14.25" customHeight="1"/>
+    <row r="657" ht="14.25" customHeight="1"/>
+    <row r="658" ht="14.25" customHeight="1"/>
+    <row r="659" ht="14.25" customHeight="1"/>
+    <row r="660" ht="14.25" customHeight="1"/>
+    <row r="661" ht="14.25" customHeight="1"/>
+    <row r="662" ht="14.25" customHeight="1"/>
+    <row r="663" ht="14.25" customHeight="1"/>
+    <row r="664" ht="14.25" customHeight="1"/>
+    <row r="665" ht="14.25" customHeight="1"/>
+    <row r="666" ht="14.25" customHeight="1"/>
+    <row r="667" ht="14.25" customHeight="1"/>
+    <row r="668" ht="14.25" customHeight="1"/>
+    <row r="669" ht="14.25" customHeight="1"/>
+    <row r="670" ht="14.25" customHeight="1"/>
+    <row r="671" ht="14.25" customHeight="1"/>
+    <row r="672" ht="14.25" customHeight="1"/>
+    <row r="673" ht="14.25" customHeight="1"/>
+    <row r="674" ht="14.25" customHeight="1"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
+    <row r="685" ht="14.25" customHeight="1"/>
+    <row r="686" ht="14.25" customHeight="1"/>
+    <row r="687" ht="14.25" customHeight="1"/>
+    <row r="688" ht="14.25" customHeight="1"/>
+    <row r="689" ht="14.25" customHeight="1"/>
+    <row r="690" ht="14.25" customHeight="1"/>
+    <row r="691" ht="14.25" customHeight="1"/>
+    <row r="692" ht="14.25" customHeight="1"/>
+    <row r="693" ht="14.25" customHeight="1"/>
+    <row r="694" ht="14.25" customHeight="1"/>
+    <row r="695" ht="14.25" customHeight="1"/>
+    <row r="696" ht="14.25" customHeight="1"/>
+    <row r="697" ht="14.25" customHeight="1"/>
+    <row r="698" ht="14.25" customHeight="1"/>
+    <row r="699" ht="14.25" customHeight="1"/>
+    <row r="700" ht="14.25" customHeight="1"/>
+    <row r="701" ht="14.25" customHeight="1"/>
+    <row r="702" ht="14.25" customHeight="1"/>
+    <row r="703" ht="14.25" customHeight="1"/>
+    <row r="704" ht="14.25" customHeight="1"/>
+    <row r="705" ht="14.25" customHeight="1"/>
+    <row r="706" ht="14.25" customHeight="1"/>
+    <row r="707" ht="14.25" customHeight="1"/>
+    <row r="708" ht="14.25" customHeight="1"/>
+    <row r="709" ht="14.25" customHeight="1"/>
+    <row r="710" ht="14.25" customHeight="1"/>
+    <row r="711" ht="14.25" customHeight="1"/>
+    <row r="712" ht="14.25" customHeight="1"/>
+    <row r="713" ht="14.25" customHeight="1"/>
+    <row r="714" ht="14.25" customHeight="1"/>
+    <row r="715" ht="14.25" customHeight="1"/>
+    <row r="716" ht="14.25" customHeight="1"/>
+    <row r="717" ht="14.25" customHeight="1"/>
+    <row r="718" ht="14.25" customHeight="1"/>
+    <row r="719" ht="14.25" customHeight="1"/>
+    <row r="720" ht="14.25" customHeight="1"/>
+    <row r="721" ht="14.25" customHeight="1"/>
+    <row r="722" ht="14.25" customHeight="1"/>
+    <row r="723" ht="14.25" customHeight="1"/>
+    <row r="724" ht="14.25" customHeight="1"/>
+    <row r="725" ht="14.25" customHeight="1"/>
+    <row r="726" ht="14.25" customHeight="1"/>
+    <row r="727" ht="14.25" customHeight="1"/>
+    <row r="728" ht="14.25" customHeight="1"/>
+    <row r="729" ht="14.25" customHeight="1"/>
+    <row r="730" ht="14.25" customHeight="1"/>
+    <row r="731" ht="14.25" customHeight="1"/>
+    <row r="732" ht="14.25" customHeight="1"/>
+    <row r="733" ht="14.25" customHeight="1"/>
+    <row r="734" ht="14.25" customHeight="1"/>
+    <row r="735" ht="14.25" customHeight="1"/>
+    <row r="736" ht="14.25" customHeight="1"/>
+    <row r="737" ht="14.25" customHeight="1"/>
+    <row r="738" ht="14.25" customHeight="1"/>
+    <row r="739" ht="14.25" customHeight="1"/>
+    <row r="740" ht="14.25" customHeight="1"/>
+    <row r="741" ht="14.25" customHeight="1"/>
+    <row r="742" ht="14.25" customHeight="1"/>
+    <row r="743" ht="14.25" customHeight="1"/>
+    <row r="744" ht="14.25" customHeight="1"/>
+    <row r="745" ht="14.25" customHeight="1"/>
+    <row r="746" ht="14.25" customHeight="1"/>
+    <row r="747" ht="14.25" customHeight="1"/>
+    <row r="748" ht="14.25" customHeight="1"/>
+    <row r="749" ht="14.25" customHeight="1"/>
+    <row r="750" ht="14.25" customHeight="1"/>
+    <row r="751" ht="14.25" customHeight="1"/>
+    <row r="752" ht="14.25" customHeight="1"/>
+    <row r="753" ht="14.25" customHeight="1"/>
+    <row r="754" ht="14.25" customHeight="1"/>
+    <row r="755" ht="14.25" customHeight="1"/>
+    <row r="756" ht="14.25" customHeight="1"/>
+    <row r="757" ht="14.25" customHeight="1"/>
+    <row r="758" ht="14.25" customHeight="1"/>
+    <row r="759" ht="14.25" customHeight="1"/>
+    <row r="760" ht="14.25" customHeight="1"/>
+    <row r="761" ht="14.25" customHeight="1"/>
+    <row r="762" ht="14.25" customHeight="1"/>
+    <row r="763" ht="14.25" customHeight="1"/>
+    <row r="764" ht="14.25" customHeight="1"/>
+    <row r="765" ht="14.25" customHeight="1"/>
+    <row r="766" ht="14.25" customHeight="1"/>
+    <row r="767" ht="14.25" customHeight="1"/>
+    <row r="768" ht="14.25" customHeight="1"/>
+    <row r="769" ht="14.25" customHeight="1"/>
+    <row r="770" ht="14.25" customHeight="1"/>
+    <row r="771" ht="14.25" customHeight="1"/>
+    <row r="772" ht="14.25" customHeight="1"/>
+    <row r="773" ht="14.25" customHeight="1"/>
+    <row r="774" ht="14.25" customHeight="1"/>
+    <row r="775" ht="14.25" customHeight="1"/>
+    <row r="776" ht="14.25" customHeight="1"/>
+    <row r="777" ht="14.25" customHeight="1"/>
+    <row r="778" ht="14.25" customHeight="1"/>
+    <row r="779" ht="14.25" customHeight="1"/>
+    <row r="780" ht="14.25" customHeight="1"/>
+    <row r="781" ht="14.25" customHeight="1"/>
+    <row r="782" ht="14.25" customHeight="1"/>
+    <row r="783" ht="14.25" customHeight="1"/>
+    <row r="784" ht="14.25" customHeight="1"/>
+    <row r="785" ht="14.25" customHeight="1"/>
+    <row r="786" ht="14.25" customHeight="1"/>
+    <row r="787" ht="14.25" customHeight="1"/>
+    <row r="788" ht="14.25" customHeight="1"/>
+    <row r="789" ht="14.25" customHeight="1"/>
+    <row r="790" ht="14.25" customHeight="1"/>
+    <row r="791" ht="14.25" customHeight="1"/>
+    <row r="792" ht="14.25" customHeight="1"/>
+    <row r="793" ht="14.25" customHeight="1"/>
+    <row r="794" ht="14.25" customHeight="1"/>
+    <row r="795" ht="14.25" customHeight="1"/>
+    <row r="796" ht="14.25" customHeight="1"/>
+    <row r="797" ht="14.25" customHeight="1"/>
+    <row r="798" ht="14.25" customHeight="1"/>
+    <row r="799" ht="14.25" customHeight="1"/>
+    <row r="800" ht="14.25" customHeight="1"/>
+    <row r="801" ht="14.25" customHeight="1"/>
+    <row r="802" ht="14.25" customHeight="1"/>
+    <row r="803" ht="14.25" customHeight="1"/>
+    <row r="804" ht="14.25" customHeight="1"/>
+    <row r="805" ht="14.25" customHeight="1"/>
+    <row r="806" ht="14.25" customHeight="1"/>
+    <row r="807" ht="14.25" customHeight="1"/>
+    <row r="808" ht="14.25" customHeight="1"/>
+    <row r="809" ht="14.25" customHeight="1"/>
+    <row r="810" ht="14.25" customHeight="1"/>
+    <row r="811" ht="14.25" customHeight="1"/>
+    <row r="812" ht="14.25" customHeight="1"/>
+    <row r="813" ht="14.25" customHeight="1"/>
+    <row r="814" ht="14.25" customHeight="1"/>
+    <row r="815" ht="14.25" customHeight="1"/>
+    <row r="816" ht="14.25" customHeight="1"/>
+    <row r="817" ht="14.25" customHeight="1"/>
+    <row r="818" ht="14.25" customHeight="1"/>
+    <row r="819" ht="14.25" customHeight="1"/>
+    <row r="820" ht="14.25" customHeight="1"/>
+    <row r="821" ht="14.25" customHeight="1"/>
+    <row r="822" ht="14.25" customHeight="1"/>
+    <row r="823" ht="14.25" customHeight="1"/>
+    <row r="824" ht="14.25" customHeight="1"/>
+    <row r="825" ht="14.25" customHeight="1"/>
+    <row r="826" ht="14.25" customHeight="1"/>
+    <row r="827" ht="14.25" customHeight="1"/>
+    <row r="828" ht="14.25" customHeight="1"/>
+    <row r="829" ht="14.25" customHeight="1"/>
+    <row r="830" ht="14.25" customHeight="1"/>
+    <row r="831" ht="14.25" customHeight="1"/>
+    <row r="832" ht="14.25" customHeight="1"/>
+    <row r="833" ht="14.25" customHeight="1"/>
+    <row r="834" ht="14.25" customHeight="1"/>
+    <row r="835" ht="14.25" customHeight="1"/>
+    <row r="836" ht="14.25" customHeight="1"/>
+    <row r="837" ht="14.25" customHeight="1"/>
+    <row r="838" ht="14.25" customHeight="1"/>
+    <row r="839" ht="14.25" customHeight="1"/>
+    <row r="840" ht="14.25" customHeight="1"/>
+    <row r="841" ht="14.25" customHeight="1"/>
+    <row r="842" ht="14.25" customHeight="1"/>
+    <row r="843" ht="14.25" customHeight="1"/>
+    <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
+    <row r="849" ht="14.25" customHeight="1"/>
+    <row r="850" ht="14.25" customHeight="1"/>
+    <row r="851" ht="14.25" customHeight="1"/>
+    <row r="852" ht="14.25" customHeight="1"/>
+    <row r="853" ht="14.25" customHeight="1"/>
+    <row r="854" ht="14.25" customHeight="1"/>
+    <row r="855" ht="14.25" customHeight="1"/>
+    <row r="856" ht="14.25" customHeight="1"/>
+    <row r="857" ht="14.25" customHeight="1"/>
+    <row r="858" ht="14.25" customHeight="1"/>
+    <row r="859" ht="14.25" customHeight="1"/>
+    <row r="860" ht="14.25" customHeight="1"/>
+    <row r="861" ht="14.25" customHeight="1"/>
+    <row r="862" ht="14.25" customHeight="1"/>
+    <row r="863" ht="14.25" customHeight="1"/>
+    <row r="864" ht="14.25" customHeight="1"/>
+    <row r="865" ht="14.25" customHeight="1"/>
+    <row r="866" ht="14.25" customHeight="1"/>
+    <row r="867" ht="14.25" customHeight="1"/>
+    <row r="868" ht="14.25" customHeight="1"/>
+    <row r="869" ht="14.25" customHeight="1"/>
+    <row r="870" ht="14.25" customHeight="1"/>
+    <row r="871" ht="14.25" customHeight="1"/>
+    <row r="872" ht="14.25" customHeight="1"/>
+    <row r="873" ht="14.25" customHeight="1"/>
+    <row r="874" ht="14.25" customHeight="1"/>
+    <row r="875" ht="14.25" customHeight="1"/>
+    <row r="876" ht="14.25" customHeight="1"/>
+    <row r="877" ht="14.25" customHeight="1"/>
+    <row r="878" ht="14.25" customHeight="1"/>
+    <row r="879" ht="14.25" customHeight="1"/>
+    <row r="880" ht="14.25" customHeight="1"/>
+    <row r="881" ht="14.25" customHeight="1"/>
+    <row r="882" ht="14.25" customHeight="1"/>
+    <row r="883" ht="14.25" customHeight="1"/>
+    <row r="884" ht="14.25" customHeight="1"/>
+    <row r="885" ht="14.25" customHeight="1"/>
+    <row r="886" ht="14.25" customHeight="1"/>
+    <row r="887" ht="14.25" customHeight="1"/>
+    <row r="888" ht="14.25" customHeight="1"/>
+    <row r="889" ht="14.25" customHeight="1"/>
+    <row r="890" ht="14.25" customHeight="1"/>
+    <row r="891" ht="14.25" customHeight="1"/>
+    <row r="892" ht="14.25" customHeight="1"/>
+    <row r="893" ht="14.25" customHeight="1"/>
+    <row r="894" ht="14.25" customHeight="1"/>
+    <row r="895" ht="14.25" customHeight="1"/>
+    <row r="896" ht="14.25" customHeight="1"/>
+    <row r="897" ht="14.25" customHeight="1"/>
+    <row r="898" ht="14.25" customHeight="1"/>
+    <row r="899" ht="14.25" customHeight="1"/>
+    <row r="900" ht="14.25" customHeight="1"/>
+    <row r="901" ht="14.25" customHeight="1"/>
+    <row r="902" ht="14.25" customHeight="1"/>
+    <row r="903" ht="14.25" customHeight="1"/>
+    <row r="904" ht="14.25" customHeight="1"/>
+    <row r="905" ht="14.25" customHeight="1"/>
+    <row r="906" ht="14.25" customHeight="1"/>
+    <row r="907" ht="14.25" customHeight="1"/>
+    <row r="908" ht="14.25" customHeight="1"/>
+    <row r="909" ht="14.25" customHeight="1"/>
+    <row r="910" ht="14.25" customHeight="1"/>
+    <row r="911" ht="14.25" customHeight="1"/>
+    <row r="912" ht="14.25" customHeight="1"/>
+    <row r="913" ht="14.25" customHeight="1"/>
+    <row r="914" ht="14.25" customHeight="1"/>
+    <row r="915" ht="14.25" customHeight="1"/>
+    <row r="916" ht="14.25" customHeight="1"/>
+    <row r="917" ht="14.25" customHeight="1"/>
+    <row r="918" ht="14.25" customHeight="1"/>
+    <row r="919" ht="14.25" customHeight="1"/>
+    <row r="920" ht="14.25" customHeight="1"/>
+    <row r="921" ht="14.25" customHeight="1"/>
+    <row r="922" ht="14.25" customHeight="1"/>
+    <row r="923" ht="14.25" customHeight="1"/>
+    <row r="924" ht="14.25" customHeight="1"/>
+    <row r="925" ht="14.25" customHeight="1"/>
+    <row r="926" ht="14.25" customHeight="1"/>
+    <row r="927" ht="14.25" customHeight="1"/>
+    <row r="928" ht="14.25" customHeight="1"/>
+    <row r="929" ht="14.25" customHeight="1"/>
+    <row r="930" ht="14.25" customHeight="1"/>
+    <row r="931" ht="14.25" customHeight="1"/>
+    <row r="932" ht="14.25" customHeight="1"/>
+    <row r="933" ht="14.25" customHeight="1"/>
+    <row r="934" ht="14.25" customHeight="1"/>
+    <row r="935" ht="14.25" customHeight="1"/>
+    <row r="936" ht="14.25" customHeight="1"/>
+    <row r="937" ht="14.25" customHeight="1"/>
+    <row r="938" ht="14.25" customHeight="1"/>
+    <row r="939" ht="14.25" customHeight="1"/>
+    <row r="940" ht="14.25" customHeight="1"/>
+    <row r="941" ht="14.25" customHeight="1"/>
+    <row r="942" ht="14.25" customHeight="1"/>
+    <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
+    <row r="952" ht="14.25" customHeight="1"/>
+    <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="26" width="8.86"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" customHeight="1"/>
+    <row r="2" ht="14.25" customHeight="1"/>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="B3" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1"/>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="B5" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1"/>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="B8" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="B9" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1"/>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="B11" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" customHeight="1"/>
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="B14" s="6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="B15" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="B17" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="B20" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="B21" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="B23" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="B26" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" customHeight="1">
+      <c r="B27" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1">
+      <c r="B29" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1">
+      <c r="B32" s="6" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" customHeight="1">
+      <c r="B33" s="6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1">
+      <c r="B35" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1">
+      <c r="B38" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" customHeight="1">
+      <c r="B39" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1">
+      <c r="B41" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1">
+      <c r="B44" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="B45" s="6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
     <row r="80" ht="14.25" customHeight="1"/>
     <row r="81" ht="14.25" customHeight="1"/>
     <row r="82" ht="14.25" customHeight="1"/>
@@ -38839,10 +40223,13 @@
       <c r="B5" s="59" t="s">
         <v>261</v>
       </c>
+      <c r="L5" s="3" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="B6" s="59" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
@@ -38852,139 +40239,221 @@
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="B8" s="60" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="B9" s="60" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="B10" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="D12" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H12" s="57" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="G13" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I13" s="57" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1"/>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="B15" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1"/>
+      <c r="B15" s="61" t="s">
+        <v>277</v>
+      </c>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+    </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="B17" s="6" t="s">
-        <v>277</v>
-      </c>
+      <c r="B17" s="63" t="s">
+        <v>278</v>
+      </c>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="B18" s="8" t="s">
-        <v>278</v>
-      </c>
+      <c r="B18" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="B19" s="8" t="s">
-        <v>279</v>
-      </c>
+      <c r="B19" s="64" t="s">
+        <v>280</v>
+      </c>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
     </row>
     <row r="20" ht="39.75" customHeight="1">
-      <c r="B20" s="6" t="s">
-        <v>280</v>
-      </c>
+      <c r="B20" s="63" t="s">
+        <v>281</v>
+      </c>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
     </row>
     <row r="21" ht="44.25" customHeight="1">
-      <c r="B21" s="61" t="s">
-        <v>281</v>
+      <c r="B21" s="65" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1"/>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="B23" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="66" t="s">
+        <v>283</v>
+      </c>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="62"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+    </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="B25" s="6" t="s">
-        <v>283</v>
-      </c>
+      <c r="A25" s="62"/>
+      <c r="B25" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="B26" s="8" t="s">
-        <v>284</v>
-      </c>
+      <c r="A26" s="62"/>
+      <c r="B26" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="B27" s="8" t="s">
-        <v>285</v>
-      </c>
+      <c r="A27" s="62"/>
+      <c r="B27" s="64" t="s">
+        <v>286</v>
+      </c>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="B28" s="8" t="s">
-        <v>286</v>
-      </c>
+      <c r="A28" s="62"/>
+      <c r="B28" s="64" t="s">
+        <v>287</v>
+      </c>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
     </row>
     <row r="29" ht="14.25" customHeight="1"/>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="B30" s="1" t="s">
-        <v>287</v>
+      <c r="B30" s="67" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1"/>
     <row r="32" ht="14.25" customHeight="1">
       <c r="B32" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="B33" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="B34" s="8" t="s">
-        <v>290</v>
+      <c r="B34" s="60" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="B35" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
@@ -38992,20 +40461,23 @@
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="B37" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1"/>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="B39" s="6" t="s">
-        <v>293</v>
+      <c r="B39" s="59" t="s">
+        <v>295</v>
       </c>
       <c r="F39" s="6"/>
       <c r="J39" s="6"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="B40" s="8" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F40" s="8"/>
       <c r="J40" s="8"/>
@@ -39016,50 +40488,50 @@
       <c r="J41" s="8"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="B42" s="6" t="s">
-        <v>295</v>
+      <c r="B42" s="59" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="B43" s="8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="B44" s="6"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="B45" s="6" t="s">
-        <v>297</v>
+      <c r="B45" s="59" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="B47" s="6"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="B48" s="6" t="s">
-        <v>299</v>
+      <c r="B48" s="59" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="B49" s="8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="B51" s="6" t="s">
-        <v>301</v>
+      <c r="B51" s="59" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="B52" s="8" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
@@ -39067,12 +40539,12 @@
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="B54" s="6" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="B55" s="8" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="56" ht="14.25" customHeight="1">
@@ -39080,12 +40552,12 @@
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="B57" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" ht="14.25" customHeight="1"/>
@@ -40053,123 +41525,169 @@
   <sheetData>
     <row r="1">
       <c r="D1" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4">
       <c r="D4" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5">
       <c r="D5" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="62" t="s">
-        <v>312</v>
-      </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
+      <c r="C7" s="68" t="s">
+        <v>314</v>
+      </c>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
     </row>
     <row r="8">
       <c r="B8" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>314</v>
-      </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
+        <v>315</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+    </row>
+    <row r="9">
+      <c r="I9" s="3" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="66" t="s">
-        <v>315</v>
+      <c r="A10" s="72" t="s">
+        <v>318</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="67" t="s">
-        <v>316</v>
-      </c>
-      <c r="E10" s="67" t="s">
-        <v>317</v>
-      </c>
-      <c r="F10" s="67" t="s">
-        <v>318</v>
-      </c>
-      <c r="G10" s="67" t="s">
+      <c r="D10" s="73" t="s">
         <v>319</v>
       </c>
+      <c r="E10" s="73" t="s">
+        <v>320</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>321</v>
+      </c>
+      <c r="G10" s="73" t="s">
+        <v>322</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="66" t="s">
-        <v>320</v>
+      <c r="A11" s="72" t="s">
+        <v>324</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="67">
+      <c r="D11" s="73">
         <v>120.0</v>
       </c>
-      <c r="E11" s="67">
+      <c r="E11" s="73">
         <v>120.0</v>
       </c>
-      <c r="F11" s="67">
+      <c r="F11" s="73">
         <v>120.0</v>
       </c>
-      <c r="G11" s="67">
-        <v>100.0</v>
+      <c r="G11" s="73">
+        <v>120.0</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="J11" s="3">
+        <v>560.0</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="66" t="s">
-        <v>321</v>
+      <c r="A12" s="72" t="s">
+        <v>328</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="67">
-        <v>430.0</v>
-      </c>
-      <c r="E12" s="67">
-        <v>430.0</v>
-      </c>
-      <c r="F12" s="67">
-        <v>430.0</v>
-      </c>
-      <c r="G12" s="67">
-        <v>380.0</v>
+      <c r="D12" s="73">
+        <v>400.0</v>
+      </c>
+      <c r="E12" s="73">
+        <v>400.0</v>
+      </c>
+      <c r="F12" s="73">
+        <v>400.0</v>
+      </c>
+      <c r="G12" s="73">
+        <v>400.0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="J12" s="3">
+        <v>168.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="I13" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="I14" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="K14" s="3">
+        <v>760.0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="16">
-      <c r="C16" s="62" t="s">
-        <v>322</v>
-      </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
+      <c r="C16" s="68" t="s">
+        <v>334</v>
+      </c>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
     </row>
     <row r="18">
-      <c r="A18" s="68"/>
+      <c r="A18" s="74"/>
     </row>
     <row r="19">
-      <c r="A19" s="69"/>
+      <c r="A19" s="75"/>
     </row>
     <row r="20" ht="30.75" customHeight="1">
-      <c r="A20" s="70" t="s">
-        <v>323</v>
+      <c r="A20" s="76" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="21" ht="35.25" customHeight="1"/>
@@ -40177,8 +41695,8 @@
       <c r="B22" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="H22" s="64" t="s">
-        <v>324</v>
+      <c r="H22" s="70" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="23">
@@ -40189,7 +41707,7 @@
         <v>213</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24">
@@ -40200,7 +41718,7 @@
         <v>216</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25">
@@ -40208,7 +41726,7 @@
         <v>218</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26">
@@ -40216,7 +41734,7 @@
         <v>220</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27">
@@ -40224,20 +41742,20 @@
         <v>222</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="28">
       <c r="H28" s="3" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="56" t="s">
         <v>224</v>
       </c>
-      <c r="H29" s="64" t="s">
-        <v>331</v>
+      <c r="H29" s="70" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="30">
@@ -40248,7 +41766,7 @@
         <v>225</v>
       </c>
       <c r="H30" s="56" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31">
@@ -40262,7 +41780,7 @@
         <v>1.0</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32">
@@ -40270,8 +41788,9 @@
         <v>229</v>
       </c>
       <c r="H32" s="56" t="s">
-        <v>334</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M32" s="77"/>
     </row>
     <row r="33">
       <c r="E33" s="57" t="s">
@@ -40281,7 +41800,7 @@
         <v>2.0</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="34">
@@ -40289,7 +41808,7 @@
         <v>233</v>
       </c>
       <c r="H34" s="56" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35">
@@ -40297,7 +41816,7 @@
         <v>3.0</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36">
@@ -40305,7 +41824,7 @@
         <v>235</v>
       </c>
       <c r="H36" s="56" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37">
@@ -40316,7 +41835,7 @@
         <v>213</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38">
@@ -40332,7 +41851,7 @@
         <v>218</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40">
@@ -40345,12 +41864,12 @@
         <v>222</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42">
       <c r="H42" s="3" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="43">
@@ -40366,7 +41885,7 @@
         <v>225</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45">
@@ -40382,7 +41901,7 @@
         <v>229</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="47">
@@ -40395,12 +41914,12 @@
         <v>233</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49">
       <c r="H49" s="3" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="50">
@@ -40408,7 +41927,7 @@
         <v>246</v>
       </c>
       <c r="H50" s="56" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="51">
@@ -40422,7 +41941,7 @@
         <v>4.0</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="52">
@@ -40433,7 +41952,7 @@
         <v>249</v>
       </c>
       <c r="H52" s="56" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="53">
@@ -40444,7 +41963,7 @@
         <v>5.0</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54">
@@ -40499,58 +42018,58 @@
       </c>
     </row>
     <row r="67">
-      <c r="C67" s="68" t="s">
-        <v>351</v>
+      <c r="C67" s="74" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="68">
-      <c r="C68" s="69"/>
+      <c r="C68" s="75"/>
     </row>
     <row r="69">
-      <c r="C69" s="71" t="s">
-        <v>352</v>
+      <c r="C69" s="78" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="70">
-      <c r="C70" s="72"/>
+      <c r="C70" s="79"/>
     </row>
     <row r="71">
-      <c r="C71" s="71" t="s">
-        <v>353</v>
+      <c r="C71" s="78" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="72">
-      <c r="C72" s="71" t="s">
-        <v>354</v>
+      <c r="C72" s="78" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="73">
-      <c r="C73" s="71" t="s">
-        <v>355</v>
+      <c r="C73" s="78" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="74">
-      <c r="C74" s="71" t="s">
-        <v>356</v>
+      <c r="C74" s="78" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A20:H21"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B59:D59"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A20:H21"/>
-    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B38:D38"/>
     <mergeCell ref="B52:D52"/>
   </mergeCells>
   <drawing r:id="rId1"/>
@@ -40578,424 +42097,424 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="73" t="s">
-        <v>315</v>
-      </c>
-      <c r="B1" s="74" t="s">
-        <v>357</v>
-      </c>
-      <c r="C1" s="74" t="s">
-        <v>358</v>
-      </c>
-      <c r="D1" s="74" t="s">
-        <v>359</v>
-      </c>
-      <c r="E1" s="75" t="s">
-        <v>360</v>
+      <c r="A1" s="80" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>370</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>371</v>
+      </c>
+      <c r="E1" s="82" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="76" t="s">
-        <v>361</v>
-      </c>
-      <c r="B2" s="77" t="s">
-        <v>362</v>
-      </c>
-      <c r="C2" s="77">
+      <c r="A2" s="83" t="s">
+        <v>373</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="C2" s="84">
         <v>3.0</v>
       </c>
-      <c r="D2" s="77">
+      <c r="D2" s="84">
         <v>1.0</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="85" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="79" t="s">
-        <v>361</v>
-      </c>
-      <c r="B3" s="80" t="s">
-        <v>362</v>
-      </c>
-      <c r="C3" s="80">
+      <c r="A3" s="86" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>374</v>
+      </c>
+      <c r="C3" s="87">
         <v>5.0</v>
       </c>
-      <c r="D3" s="80">
+      <c r="D3" s="87">
         <v>2.0</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="88" t="s">
         <v>246</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="76" t="s">
-        <v>361</v>
-      </c>
-      <c r="B4" s="77" t="s">
-        <v>362</v>
-      </c>
-      <c r="C4" s="77">
+      <c r="A4" s="83" t="s">
+        <v>373</v>
+      </c>
+      <c r="B4" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="C4" s="84">
         <v>1.0</v>
       </c>
-      <c r="D4" s="77">
+      <c r="D4" s="84">
         <v>1.0</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="85" t="s">
         <v>240</v>
       </c>
       <c r="G4" s="56"/>
       <c r="I4" s="3" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="79" t="s">
-        <v>361</v>
-      </c>
-      <c r="B5" s="80" t="s">
-        <v>362</v>
-      </c>
-      <c r="C5" s="80">
+      <c r="A5" s="86" t="s">
+        <v>373</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>374</v>
+      </c>
+      <c r="C5" s="87">
         <v>2.0</v>
       </c>
-      <c r="D5" s="80">
+      <c r="D5" s="87">
         <v>1.0</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="88" t="s">
         <v>240</v>
       </c>
       <c r="G5" s="56"/>
       <c r="H5" s="3" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="76" t="s">
-        <v>361</v>
-      </c>
-      <c r="B6" s="77" t="s">
-        <v>362</v>
-      </c>
-      <c r="C6" s="77">
+      <c r="A6" s="83" t="s">
+        <v>373</v>
+      </c>
+      <c r="B6" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="C6" s="84">
         <v>3.0</v>
       </c>
-      <c r="D6" s="77">
+      <c r="D6" s="84">
         <v>2.0</v>
       </c>
-      <c r="E6" s="78" t="s">
+      <c r="E6" s="85" t="s">
         <v>246</v>
       </c>
       <c r="G6" s="56"/>
     </row>
     <row r="7">
-      <c r="A7" s="82" t="s">
-        <v>361</v>
-      </c>
-      <c r="B7" s="83" t="s">
-        <v>362</v>
-      </c>
-      <c r="C7" s="83">
+      <c r="A7" s="89" t="s">
+        <v>373</v>
+      </c>
+      <c r="B7" s="90" t="s">
+        <v>374</v>
+      </c>
+      <c r="C7" s="90">
         <v>4.0</v>
       </c>
-      <c r="D7" s="83">
+      <c r="D7" s="90">
         <v>1.0</v>
       </c>
-      <c r="E7" s="84" t="s">
+      <c r="E7" s="91" t="s">
         <v>246</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="85" t="s">
-        <v>361</v>
-      </c>
-      <c r="B8" s="86" t="s">
-        <v>362</v>
-      </c>
-      <c r="C8" s="86">
+      <c r="A8" s="92" t="s">
+        <v>373</v>
+      </c>
+      <c r="B8" s="93" t="s">
+        <v>374</v>
+      </c>
+      <c r="C8" s="93">
         <v>6.0</v>
       </c>
-      <c r="D8" s="86">
+      <c r="D8" s="93">
         <v>2.0</v>
       </c>
-      <c r="E8" s="87" t="s">
+      <c r="E8" s="94" t="s">
         <v>252</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="82" t="s">
-        <v>361</v>
-      </c>
-      <c r="B9" s="83" t="s">
-        <v>362</v>
-      </c>
-      <c r="C9" s="83">
+      <c r="A9" s="89" t="s">
+        <v>373</v>
+      </c>
+      <c r="B9" s="90" t="s">
+        <v>374</v>
+      </c>
+      <c r="C9" s="90">
         <v>2.0</v>
       </c>
-      <c r="D9" s="83">
+      <c r="D9" s="90">
         <v>1.0</v>
       </c>
-      <c r="E9" s="84" t="s">
+      <c r="E9" s="91" t="s">
         <v>252</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="76" t="s">
-        <v>374</v>
-      </c>
-      <c r="B10" s="77">
+      <c r="A10" s="83" t="s">
+        <v>386</v>
+      </c>
+      <c r="B10" s="84">
         <v>1.0</v>
       </c>
-      <c r="C10" s="77">
+      <c r="C10" s="84">
         <v>10.0</v>
       </c>
-      <c r="D10" s="77">
+      <c r="D10" s="84">
         <v>3.0</v>
       </c>
-      <c r="E10" s="78" t="s">
+      <c r="E10" s="85" t="s">
         <v>252</v>
       </c>
       <c r="G10" s="56" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="79" t="s">
-        <v>374</v>
-      </c>
-      <c r="B11" s="80">
+      <c r="A11" s="86" t="s">
+        <v>386</v>
+      </c>
+      <c r="B11" s="87">
         <v>1.0</v>
       </c>
-      <c r="C11" s="80">
+      <c r="C11" s="87">
         <v>3.0</v>
       </c>
-      <c r="D11" s="80">
+      <c r="D11" s="87">
         <v>2.0</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="88" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="88" t="s">
-        <v>374</v>
-      </c>
-      <c r="B12" s="89">
+      <c r="A12" s="95" t="s">
+        <v>386</v>
+      </c>
+      <c r="B12" s="96">
         <v>1.0</v>
       </c>
-      <c r="C12" s="89">
+      <c r="C12" s="96">
         <v>12.0</v>
       </c>
-      <c r="D12" s="89">
+      <c r="D12" s="96">
         <v>3.0</v>
       </c>
-      <c r="E12" s="90" t="s">
+      <c r="E12" s="97" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="79" t="s">
-        <v>374</v>
-      </c>
-      <c r="B13" s="80">
+      <c r="A13" s="86" t="s">
+        <v>386</v>
+      </c>
+      <c r="B13" s="87">
         <v>2.0</v>
       </c>
-      <c r="C13" s="80">
+      <c r="C13" s="87">
         <v>5.0</v>
       </c>
-      <c r="D13" s="80">
+      <c r="D13" s="87">
         <v>2.0</v>
       </c>
-      <c r="E13" s="81" t="s">
+      <c r="E13" s="88" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="88" t="s">
-        <v>374</v>
-      </c>
-      <c r="B14" s="89">
+      <c r="A14" s="95" t="s">
+        <v>386</v>
+      </c>
+      <c r="B14" s="96">
         <v>2.0</v>
       </c>
-      <c r="C14" s="89">
+      <c r="C14" s="96">
         <v>7.0</v>
       </c>
-      <c r="D14" s="89">
+      <c r="D14" s="96">
         <v>3.0</v>
       </c>
-      <c r="E14" s="90" t="s">
+      <c r="E14" s="97" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="79" t="s">
-        <v>374</v>
-      </c>
-      <c r="B15" s="80">
+      <c r="A15" s="86" t="s">
+        <v>386</v>
+      </c>
+      <c r="B15" s="87">
         <v>3.0</v>
       </c>
-      <c r="C15" s="80">
+      <c r="C15" s="87">
         <v>15.0</v>
       </c>
-      <c r="D15" s="80">
+      <c r="D15" s="87">
         <v>4.0</v>
       </c>
-      <c r="E15" s="81" t="s">
+      <c r="E15" s="88" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="76" t="s">
-        <v>374</v>
-      </c>
-      <c r="B16" s="77">
+      <c r="A16" s="83" t="s">
+        <v>386</v>
+      </c>
+      <c r="B16" s="84">
         <v>3.0</v>
       </c>
-      <c r="C16" s="77">
+      <c r="C16" s="84">
         <v>8.0</v>
       </c>
-      <c r="D16" s="77">
+      <c r="D16" s="84">
         <v>3.0</v>
       </c>
-      <c r="E16" s="78" t="s">
+      <c r="E16" s="85" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="82" t="s">
-        <v>374</v>
-      </c>
-      <c r="B17" s="83">
+      <c r="A17" s="89" t="s">
+        <v>386</v>
+      </c>
+      <c r="B17" s="90">
         <v>3.0</v>
       </c>
-      <c r="C17" s="83">
+      <c r="C17" s="90">
         <v>10.0</v>
       </c>
-      <c r="D17" s="83">
+      <c r="D17" s="90">
         <v>4.0</v>
       </c>
-      <c r="E17" s="84" t="s">
+      <c r="E17" s="91" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="88" t="s">
-        <v>374</v>
-      </c>
-      <c r="B18" s="89">
+      <c r="A18" s="95" t="s">
+        <v>386</v>
+      </c>
+      <c r="B18" s="96">
         <v>4.0</v>
       </c>
-      <c r="C18" s="89">
+      <c r="C18" s="96">
         <v>18.0</v>
       </c>
-      <c r="D18" s="89">
+      <c r="D18" s="96">
         <v>5.0</v>
       </c>
-      <c r="E18" s="90" t="s">
+      <c r="E18" s="97" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="79" t="s">
-        <v>316</v>
-      </c>
-      <c r="B19" s="80">
+      <c r="A19" s="86" t="s">
+        <v>319</v>
+      </c>
+      <c r="B19" s="87">
         <v>1.0</v>
       </c>
-      <c r="C19" s="80">
+      <c r="C19" s="87">
         <v>2.0</v>
       </c>
-      <c r="D19" s="80">
+      <c r="D19" s="87">
         <v>2.0</v>
       </c>
-      <c r="E19" s="81" t="s">
+      <c r="E19" s="88" t="s">
         <v>246</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="76" t="s">
-        <v>316</v>
-      </c>
-      <c r="B20" s="77">
+      <c r="A20" s="83" t="s">
+        <v>319</v>
+      </c>
+      <c r="B20" s="84">
         <v>1.0</v>
       </c>
-      <c r="C20" s="77">
+      <c r="C20" s="84">
         <v>2.0</v>
       </c>
-      <c r="D20" s="77">
+      <c r="D20" s="84">
         <v>1.0</v>
       </c>
-      <c r="E20" s="78" t="s">
+      <c r="E20" s="85" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="82" t="s">
-        <v>316</v>
-      </c>
-      <c r="B21" s="83">
+      <c r="A21" s="89" t="s">
+        <v>319</v>
+      </c>
+      <c r="B21" s="90">
         <v>1.0</v>
       </c>
-      <c r="C21" s="83">
+      <c r="C21" s="90">
         <v>4.0</v>
       </c>
-      <c r="D21" s="83">
+      <c r="D21" s="90">
         <v>1.0</v>
       </c>
-      <c r="E21" s="81" t="s">
+      <c r="E21" s="88" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="88" t="s">
-        <v>316</v>
-      </c>
-      <c r="B22" s="89">
+      <c r="A22" s="95" t="s">
+        <v>319</v>
+      </c>
+      <c r="B22" s="96">
         <v>1.0</v>
       </c>
-      <c r="C22" s="89">
+      <c r="C22" s="96">
         <v>3.0</v>
       </c>
-      <c r="D22" s="89">
+      <c r="D22" s="96">
         <v>1.0</v>
       </c>
-      <c r="E22" s="90" t="s">
+      <c r="E22" s="97" t="s">
         <v>246</v>
       </c>
       <c r="G22" s="3">
@@ -41008,120 +42527,120 @@
         <v>1.0</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="79" t="s">
-        <v>316</v>
-      </c>
-      <c r="B23" s="80">
+      <c r="A23" s="86" t="s">
+        <v>319</v>
+      </c>
+      <c r="B23" s="87">
         <v>2.0</v>
       </c>
-      <c r="C23" s="80">
+      <c r="C23" s="87">
         <v>3.0</v>
       </c>
-      <c r="D23" s="80">
+      <c r="D23" s="87">
         <v>2.0</v>
       </c>
-      <c r="E23" s="84" t="s">
+      <c r="E23" s="91" t="s">
         <v>246</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="76" t="s">
-        <v>316</v>
-      </c>
-      <c r="B24" s="77">
+      <c r="A24" s="83" t="s">
+        <v>319</v>
+      </c>
+      <c r="B24" s="84">
         <v>2.0</v>
       </c>
-      <c r="C24" s="77">
+      <c r="C24" s="84">
         <v>3.0</v>
       </c>
-      <c r="D24" s="77">
+      <c r="D24" s="84">
         <v>1.0</v>
       </c>
-      <c r="E24" s="78" t="s">
+      <c r="E24" s="85" t="s">
         <v>252</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="82" t="s">
-        <v>316</v>
-      </c>
-      <c r="B25" s="83">
+      <c r="A25" s="89" t="s">
+        <v>319</v>
+      </c>
+      <c r="B25" s="90">
         <v>2.0</v>
       </c>
-      <c r="C25" s="83">
+      <c r="C25" s="90">
         <v>4.0</v>
       </c>
-      <c r="D25" s="83">
+      <c r="D25" s="90">
         <v>2.0</v>
       </c>
-      <c r="E25" s="84" t="s">
+      <c r="E25" s="91" t="s">
         <v>252</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="76" t="s">
-        <v>316</v>
-      </c>
-      <c r="B26" s="77">
+      <c r="A26" s="83" t="s">
+        <v>319</v>
+      </c>
+      <c r="B26" s="84">
         <v>3.0</v>
       </c>
-      <c r="C26" s="77">
+      <c r="C26" s="84">
         <v>4.0</v>
       </c>
-      <c r="D26" s="77">
+      <c r="D26" s="84">
         <v>2.0</v>
       </c>
-      <c r="E26" s="78" t="s">
+      <c r="E26" s="85" t="s">
         <v>252</v>
       </c>
       <c r="G26" s="56" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="82" t="s">
-        <v>316</v>
-      </c>
-      <c r="B27" s="83">
+      <c r="A27" s="89" t="s">
+        <v>319</v>
+      </c>
+      <c r="B27" s="90">
         <v>3.0</v>
       </c>
-      <c r="C27" s="83">
+      <c r="C27" s="90">
         <v>6.0</v>
       </c>
-      <c r="D27" s="83">
+      <c r="D27" s="90">
         <v>2.0</v>
       </c>
-      <c r="E27" s="84" t="s">
+      <c r="E27" s="91" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="76" t="s">
-        <v>380</v>
-      </c>
-      <c r="B28" s="77" t="s">
-        <v>362</v>
-      </c>
-      <c r="C28" s="77" t="s">
-        <v>362</v>
-      </c>
-      <c r="D28" s="77">
+      <c r="A28" s="83" t="s">
+        <v>392</v>
+      </c>
+      <c r="B28" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="C28" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="D28" s="84">
         <v>1.0</v>
       </c>
-      <c r="E28" s="78" t="s">
+      <c r="E28" s="85" t="s">
         <v>211</v>
       </c>
       <c r="G28" s="3">
@@ -41135,19 +42654,19 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="79" t="s">
-        <v>380</v>
-      </c>
-      <c r="B29" s="80" t="s">
-        <v>362</v>
-      </c>
-      <c r="C29" s="80" t="s">
-        <v>362</v>
-      </c>
-      <c r="D29" s="80">
+      <c r="A29" s="86" t="s">
+        <v>392</v>
+      </c>
+      <c r="B29" s="87" t="s">
+        <v>374</v>
+      </c>
+      <c r="C29" s="87" t="s">
+        <v>374</v>
+      </c>
+      <c r="D29" s="87">
         <v>1.0</v>
       </c>
-      <c r="E29" s="81" t="s">
+      <c r="E29" s="88" t="s">
         <v>235</v>
       </c>
       <c r="G29" s="3">
@@ -41161,19 +42680,19 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="88" t="s">
-        <v>380</v>
-      </c>
-      <c r="B30" s="89" t="s">
-        <v>362</v>
-      </c>
-      <c r="C30" s="89" t="s">
-        <v>362</v>
-      </c>
-      <c r="D30" s="89">
+      <c r="A30" s="95" t="s">
+        <v>392</v>
+      </c>
+      <c r="B30" s="96" t="s">
+        <v>374</v>
+      </c>
+      <c r="C30" s="96" t="s">
+        <v>374</v>
+      </c>
+      <c r="D30" s="96">
         <v>2.0</v>
       </c>
-      <c r="E30" s="90" t="s">
+      <c r="E30" s="97" t="s">
         <v>235</v>
       </c>
       <c r="G30" s="3">
@@ -41187,19 +42706,19 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="82" t="s">
-        <v>380</v>
-      </c>
-      <c r="B31" s="83" t="s">
-        <v>362</v>
-      </c>
-      <c r="C31" s="83" t="s">
-        <v>362</v>
-      </c>
-      <c r="D31" s="83">
+      <c r="A31" s="89" t="s">
+        <v>392</v>
+      </c>
+      <c r="B31" s="90" t="s">
+        <v>374</v>
+      </c>
+      <c r="C31" s="90" t="s">
+        <v>374</v>
+      </c>
+      <c r="D31" s="90">
         <v>2.0</v>
       </c>
-      <c r="E31" s="84" t="s">
+      <c r="E31" s="91" t="s">
         <v>240</v>
       </c>
       <c r="G31" s="56">
@@ -41213,19 +42732,19 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="91" t="s">
-        <v>380</v>
-      </c>
-      <c r="B32" s="92" t="s">
-        <v>362</v>
-      </c>
-      <c r="C32" s="92" t="s">
-        <v>362</v>
-      </c>
-      <c r="D32" s="92">
+      <c r="A32" s="98" t="s">
+        <v>392</v>
+      </c>
+      <c r="B32" s="99" t="s">
+        <v>374</v>
+      </c>
+      <c r="C32" s="99" t="s">
+        <v>374</v>
+      </c>
+      <c r="D32" s="99">
         <v>1.0</v>
       </c>
-      <c r="E32" s="93" t="s">
+      <c r="E32" s="100" t="s">
         <v>235</v>
       </c>
       <c r="G32" s="3">
@@ -41321,1111 +42840,348 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.86"/>
+    <col customWidth="1" min="1" max="1" width="29.71"/>
+    <col customWidth="1" min="2" max="2" width="40.14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1"/>
-    <row r="2" ht="14.25" customHeight="1"/>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="B3" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1"/>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="B5" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="59" t="s">
-        <v>384</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="B11" s="4" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="B14" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="B15" s="6" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="B17" s="4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="B20" s="6" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="B21" s="6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="B23" s="4" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="B26" s="6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="B27" s="6" t="s">
+    <row r="1">
+      <c r="A1" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="B29" s="4" t="s">
+    <row r="2">
+      <c r="A2" s="3" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="B32" s="6" t="s">
+    <row r="3">
+      <c r="A3" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="B33" s="6" t="s">
+    <row r="5">
+      <c r="A5" s="3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="B35" s="4" t="s">
+    <row r="7">
+      <c r="A7" s="3" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="B38" s="6" t="s">
+    <row r="9">
+      <c r="A9" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="B39" s="6" t="s">
+    <row r="10">
+      <c r="A10" s="3" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="B41" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="B44" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="B45" s="6" t="s">
+    <row r="11">
+      <c r="A11" s="3" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
+      <c r="B11" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="56" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="70" t="s">
+        <v>424</v>
+      </c>
+      <c r="B48" s="70" t="s">
+        <v>400</v>
+      </c>
+      <c r="C48" s="70" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C49" s="101" t="s">
+        <v>425</v>
+      </c>
+      <c r="E49" s="102"/>
+    </row>
+    <row r="50">
+      <c r="E50" s="102"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="56" t="s">
+        <v>426</v>
+      </c>
+      <c r="E51" s="102"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E52" s="102"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" s="3"/>
+    </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
-  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="74" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="78" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="78" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="78" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="78" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="78"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="74" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="78" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="78" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="78" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="78" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="78" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="78" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="74"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="74" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="78" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="78" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="78" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="78" t="s">
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Report/do an.xlsx
+++ b/Report/do an.xlsx
@@ -12,7 +12,7 @@
     <sheet state="visible" name="Estimate" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="Sheet3" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="Sheet4" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="phí đóng gói" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="msg" sheetId="10" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">Estimate!$A$1:$E$32</definedName>
@@ -20,14 +20,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataChecksum="78WcQWzp+D3WakRCXwqvaTKxQ7mTrPe0tJYCj983S+8="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataChecksum="V6SNANVit/Q3hY9fEi5KzOUlYY9DTk4W/VD50w2rCoM="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="566">
   <si>
     <t>Nhập: số tầng, loại nhà, diện tích và số phòng</t>
   </si>
@@ -2605,10 +2605,97 @@
     <t>toàn bộ 5tr cọc trước 2tr (đã bao gồm phí di chuyển review)</t>
   </si>
   <si>
+    <t>As the MoveMate system administrator,</t>
+  </si>
+  <si>
+    <t>I want to manage the active moving bookings so that I can track the overall status and progress of each booking.</t>
+  </si>
+  <si>
+    <t>I want to manage the available drivers and porters so that I can assign jobs efficiently and ensure enough personnel are available to handle bookings.</t>
+  </si>
+  <si>
+    <t>I want to manage the vehicle fleet so that I can keep track of vehicle availability, usage, and maintenance schedules.</t>
+  </si>
+  <si>
+    <t>I want to manage customer reviews and feedback so that I can monitor service quality and resolve any issues that arise.</t>
+  </si>
+  <si>
+    <t>I want to manage the payment system so that I can ensure transactions are processed accurately and securely, including deposits and final payments for each move.</t>
+  </si>
+  <si>
+    <t>As a customer,</t>
+  </si>
+  <si>
+    <t>I want to book a moving service so that I can easily schedule my move, select the right vehicle, and specify any additional services like loading or unloading.</t>
+  </si>
+  <si>
+    <t>I want to manage my booking so that I can make changes or cancel my reservation if my plans change.</t>
+  </si>
+  <si>
+    <t>I want to track the progress of my move in real time so that I can be informed about when the driver and porters will arrive.</t>
+  </si>
+  <si>
+    <t>I want to pay for my moving service online so that I can complete the transaction securely and conveniently without needing cash on hand.</t>
+  </si>
+  <si>
+    <t>I want to manage customer inquiries so that I can resolve issues related to booking, payment, or moving services.</t>
+  </si>
+  <si>
+    <t>I want to provide updates to customers regarding their move so that I can keep them informed about any delays or changes.</t>
+  </si>
+  <si>
+    <t>I want to handle complaints and damage claims so that I can resolve any post-move issues and maintain customer satisfaction.</t>
+  </si>
+  <si>
+    <t>I want to see all the cars available so that I can make my choice more easily</t>
+  </si>
+  <si>
+    <t>I want to manage my wallet so that I can keep track of how much I've paid for which services.</t>
+  </si>
+  <si>
+    <t>I want to see information about each service so that I can compare and make a reasonable choice.</t>
+  </si>
+  <si>
+    <t>As a driver,</t>
+  </si>
+  <si>
+    <t>I want to receive assignments so that I know when and where I need to be for each moving job.</t>
+  </si>
+  <si>
+    <t>I want to navigate to the customer’s location with real-time map integration so that I can arrive on time and avoid delays.</t>
+  </si>
+  <si>
+    <t>I want to update the system when I have arrived at the location so that the customer is notified and the job can proceed.</t>
+  </si>
+  <si>
+    <t>I want to confirm the completion of the moving service so that I can ensure the job is logged as finished, and payment can be processed.</t>
+  </si>
+  <si>
+    <t>As a porter,</t>
+  </si>
+  <si>
+    <t>I want to view my assigned jobs so that I can prepare for each move and coordinate with the team.</t>
+  </si>
+  <si>
+    <t>I want to update the system when loading and unloading tasks are completed so that I can ensure accurate reporting of job progress.</t>
+  </si>
+  <si>
+    <t>I want to confirm the completion of my tasks so that the customer knows the service has been completed, and I can log my work hours for payment.</t>
+  </si>
+  <si>
+    <t>Đi theo flow kh chọn ngày giờ, nơi đi và đến  -&gt; upload hình ảnh, video đồ vật -&gt; chọn xe -&gt; chọn dịch vụ -&gt; màn hình xử lý -&gt; deposit -&gt; tracking -&gt; done -&gt; payment</t>
+  </si>
+  <si>
+    <t>xử lý: review có kinh nghiệm xử lý đưa ra cho kh xe dịch vụ hợp lý hơn -&gt; gửi noti cho khách hàng -&gt; màn hình (3 nút: Đồng ý, Hủy, Liên lạc với reviewer qua nhắn gọi điện trong app)</t>
+  </si>
+  <si>
+    <t>trường hợp booking liền</t>
+  </si>
+  <si>
     <t>đổi time</t>
   </si>
   <si>
-    <t>đang tìm</t>
+    <t xml:space="preserve">đang tìm tài xế </t>
   </si>
   <si>
     <t>đã tìm thấy (assign)</t>
@@ -2621,69 +2708,6 @@
   </si>
   <si>
     <t>OK ĐỔI</t>
-  </si>
-  <si>
-    <t>(TH1: review đã review ko trừ)</t>
-  </si>
-  <si>
-    <t>(TH2: CUS DC ĐỔI 1 LẦN khi đã liên lạc dc review)</t>
-  </si>
-  <si>
-    <t>(TH3: ko liên lạc dc vs cus review sẽ có nút update là chờ trong vòng 3 tiếng, sau 3 tiếng ko có phản hồi từ cus sẽ hủy booking và ăn tiền cọc)</t>
-  </si>
-  <si>
-    <t>ko dc đổi trong trường hợp đã review done</t>
-  </si>
-  <si>
-    <t>tình huống trong lúc vận chuyển xảy ra sự cố:</t>
-  </si>
-  <si>
-    <t>1. lỗi của driver potter thì phải report từ cus hoặc driver hoặc potter thì sẽ đền bù 70% giá trị của đồ vật</t>
-  </si>
-  <si>
-    <t>2. lỗi cus khi ko chụp đầy đủ hình ảnh  thì khi driver tới nếu chở ko đủ 1 lần sẽ update đi lần 2 hoặc đổi xe</t>
-  </si>
-  <si>
-    <t>hỏi cô làm thế nào để xác thực cái order của customer</t>
-  </si>
-  <si>
-    <t>1. CÓ REVIEW TỚI</t>
-  </si>
-  <si>
-    <t>ƯU</t>
-  </si>
-  <si>
-    <t>XÁC THỰC CAO, CONNECT TRỰC TIẾP CUS, LINH HOẠT SETTING</t>
-  </si>
-  <si>
-    <t>NHƯỢC</t>
-  </si>
-  <si>
-    <t>TỐN TIME, TỐN RESOURCE</t>
-  </si>
-  <si>
-    <t>2. REVIEW QUA ẢNH VIDEO CUS CUNG CẤP</t>
-  </si>
-  <si>
-    <t>ÍT TỐN RESOURCE, USER KO CẦN ĐỢI REVIEW -&gt; BƯỚC XE TỚI, GIẢM THIỂU THỜI GIAN CUS TẬP TRUNG VÀO 1 BOOKING</t>
-  </si>
-  <si>
-    <t>KO XÁC THỰC, CHƯA CHẮC CONNECT 24/7 CUS PHẢI ĐỢI REVIEW ACCEPT</t>
-  </si>
-  <si>
-    <t>duyệt -&gt; update -&gt; cho user confirm -&gt; nếu ko ok thì mới chat mới alo</t>
-  </si>
-  <si>
-    <t>Đi theo flow kh chọn ngày giờ, nơi đi và đến  -&gt; upload hình ảnh, video đồ vật -&gt; chọn xe -&gt; chọn dịch vụ -&gt; màn hình xử lý -&gt; deposit -&gt; tracking -&gt; done -&gt; payment</t>
-  </si>
-  <si>
-    <t>xử lý: review có kinh nghiệm xử lý đưa ra cho kh xe dịch vụ hợp lý hơn -&gt; gửi noti cho khách hàng -&gt; màn hình (3 nút: Đồng ý, Hủy, Liên lạc với reviewer qua nhắn gọi điện trong app)</t>
-  </si>
-  <si>
-    <t>trường hợp booking liền</t>
-  </si>
-  <si>
-    <t xml:space="preserve">đang tìm tài xế </t>
   </si>
   <si>
     <t>đổi ngày 1 lần miễn phí nhưng phải do driver hoặc potter ở đó report</t>
@@ -2786,10 +2810,30 @@
     <t>Nếu ngoài giờ: Thêm khoản phí ngoài giờ % vào tổng phí.</t>
   </si>
   <si>
-    <t>Phí Đóng Gói</t>
-  </si>
-  <si>
-    <t>Chi Phí Đóng Gói Cơ Bản</t>
+    <t>Dịch vụ bốc xếp đã bao gồm vật tư đóng gói và bao bọc 200.000đ đồng thời hỗ trợ sử dụng dụng cụ bốc vác</t>
+  </si>
+  <si>
+    <t>Phân loại dịch vụ</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>Loại dịch vụ</t>
+  </si>
+  <si>
+    <t>Bốc xếp (Bởi tài xế)</t>
+  </si>
+  <si>
+    <t>Phí cơ bản: 120.000đ/người/xe cho tối đa 3 tầng.
+Tăng giá theo tầng: Nếu công trình có 4 đến 5 tầng, giá sẽ tăng thêm 20% cho mỗi tầng. Với công trình trên 5 tầng, giá sẽ tăng thêm 25%.
+Bao gồm: Hỗ trợ bốc xếp hàng hóa bởi tài xế, không bao gồm nhân viên bốc xếp chuyên nghiệp.</t>
+  </si>
+  <si>
+    <t>Bốc xếp</t>
+  </si>
+  <si>
+    <t>120.000đ/người/xe/ 3 tầng</t>
   </si>
   <si>
     <r>
@@ -2799,7 +2843,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>Đóng Gói Hộp Thông Thường:</t>
+      <t>4 đến 5 tầng</t>
     </r>
     <r>
       <rPr>
@@ -2808,8 +2852,11 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve"> Đóng gói các vật dụng nhỏ trong hộp carton.</t>
+      <t>: Tăng giá thêm 20% cho mỗi tầng.</t>
     </r>
+  </si>
+  <si>
+    <t>400.000đ/người/ 3 tầng</t>
   </si>
   <si>
     <r>
@@ -2817,260 +2864,329 @@
         <rFont val="Calibri"/>
         <b/>
         <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
-      <t>Giá tham khảo:</t>
+      <t xml:space="preserve">+5 tầng: </t>
     </r>
     <r>
       <rPr>
         <rFont val="Calibri"/>
         <b val="0"/>
         <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve"> 10,000 VND/hộp</t>
+      <t>25%</t>
     </r>
   </si>
   <si>
-    <t>cho khách chọn mua tùy thích đóng gói xong mới tính giá</t>
-  </si>
-  <si>
-    <t>Chi Phí Đóng Gói Đặc Biệt</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Đóng Gói Đồ Đạc Cồng Kềnh:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng gói đồ đạc lớn như sofa, tủ lạnh, máy giặt.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Giá tham khảo:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> 200,000 - 500,000 VND/món</t>
-    </r>
-  </si>
-  <si>
-    <t>Chi Phí Đóng Gói Bảo Vệ</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Đóng Gói Bằng Vật Liệu Bảo Vệ:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> Sử dụng bọt khí, xốp, hoặc giấy gói để bảo vệ đồ đạc nhạy cảm.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Giá tham khảo:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> 100,000 - 300,000 VND/m2 hoặc 50,000 - 150,000 VND/món (tùy thuộc vào loại vật liệu)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Đóng Gói Đồ Nghệ Thuật hoặc Giá Trị Cao:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng gói các món đồ dễ vỡ hoặc có giá trị cao (như tranh, đồ cổ).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Giá tham khảo:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> 300,000 - 600,000 VND/món</t>
-    </r>
-  </si>
-  <si>
-    <t>Chi Phí Đóng Gói Đối Với Hàng Hóa Nhỏ</t>
-  </si>
-  <si>
-    <t>Đóng Gói Hàng Hóa Nhỏ (Như Đồ Điện Tử, Đồ Gia Dụng Nhỏ):</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Giá tham khảo:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> 20,000 - 50,000 VND/món</t>
-    </r>
-  </si>
-  <si>
-    <t>Chi Phí Đóng Gói Hộp Cồng Kềnh</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Đóng Gói Hộp Lớn hoặc Thùng Cồng Kềnh:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> Phí cho việc đóng gói hộp lớn hoặc thùng.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Giá tham khảo:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> 150,000 - 300,000 VND/hộp/thùng</t>
-    </r>
-  </si>
-  <si>
-    <t>Chi Phí Đóng Gói Lại</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Đóng Gói Lại Các Món Đã Được Đóng Gói Trước:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> Nếu cần phải đóng gói lại các món đồ đã được đóng gói trước đó.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Giá tham khảo:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> 100,000 - 200,000 VND/món</t>
-    </r>
+    <t>3 tầng: 50.000đ | 4 - 5 tầng: 100.000đ | +5 tầng: 150.000đ</t>
+  </si>
+  <si>
+    <t>Bốc xếp (Bởi nhân viên bốc xếp)</t>
+  </si>
+  <si>
+    <t>Phí cơ bản: 400.000đ/người cho tối đa 3 tầng.
+Tăng giá theo tầng: Từ 4 đến 5 tầng, giá tăng thêm 20% cho mỗi tầng. Với trên 5 tầng, giá sẽ tăng thêm 25%.
+Bao gồm: Nhân viên bốc xếp chuyên nghiệp đảm bảo hàng hóa được xử lý an toàn và nhanh chóng.</t>
+  </si>
+  <si>
+    <t>50 - 100m: 100.000đ | 100 - 200m: 150.000đ | +200m: 200.000đ</t>
+  </si>
+  <si>
+    <t>190.000đ/người/xe/ 3 tầng</t>
+  </si>
+  <si>
+    <t>470.000đ/người/ 3 tầng</t>
+  </si>
+  <si>
+    <t>Bốc xếp sử dụng thang máy nhỏ hoặc không có thang máy</t>
+  </si>
+  <si>
+    <t>Giá phụ thu theo tầng: 3 tầng: 50.000đ, 4 đến 5 tầng: 100.000đ, trên 5 tầng: 150.000đ.
+Bao gồm: Hỗ trợ di chuyển hàng hóa trong những công trình có thang máy nhỏ hoặc không có thang máy.</t>
+  </si>
+  <si>
+    <t>300.000đ/bộ</t>
+  </si>
+  <si>
+    <t>150.000đ/bộ: đồ vật nhỏ &lt;=5kg | 300.000đ/bộ: đồ vật lớn &gt;6kg</t>
+  </si>
+  <si>
+    <t>Bốc xếp tại địa điểm khó tiếp cận
+50 - 100m: 100.000đ/ người
+100 - 200m: 150.000đ/ người
+trên 200m: 200.000đ/ người</t>
+  </si>
+  <si>
+    <t>Giá phụ thu theo khoảng cách: 50 - 100m: 100.000đ, 100 - 200m: 150.000đ, trên 200m: 200.000đ.
+Bao gồm: Phí này áp dụng cho những địa điểm mà xe tải không thể đến gần, cần di chuyển hàng hóa bằng tay hoặc xe đẩy qua những quãng đường dài.</t>
+  </si>
+  <si>
+    <t>60.000đ/h</t>
+  </si>
+  <si>
+    <t>10.000đ/ng</t>
+  </si>
+  <si>
+    <t>5.000đ</t>
+  </si>
+  <si>
+    <t>Bốc xếp ngoài giờ (Bởi tài xế)</t>
+  </si>
+  <si>
+    <t>Phí cơ bản: 190.000đ/người/xe cho tối đa 3 tầng.
+Tăng giá theo tầng: Nếu công trình có 4 đến 5 tầng, giá sẽ tăng thêm 20% cho mỗi tầng. Với công trình trên 5 tầng, giá sẽ tăng thêm 25%.
+Bao gồm: Hỗ trợ bốc xếp hàng hóa bởi tài xế, không bao gồm nhân viên bốc xếp chuyên nghiệp.</t>
+  </si>
+  <si>
+    <t>Bốc xếp ngoài giờ (Bởi nhân viên bốc xếp)</t>
+  </si>
+  <si>
+    <t>Phí cơ bản: 470.000đ/người cho tối đa 3 tầng.
+Tăng giá theo tầng: Từ 4 đến 5 tầng, giá tăng thêm 20% cho mỗi tầng. Với trên 5 tầng, giá sẽ tăng thêm 25%.
+Bao gồm: Nhân viên bốc xếp chuyên nghiệp đảm bảo hàng hóa được xử lý an toàn và nhanh chóng.</t>
+  </si>
+  <si>
+    <t>Tháo lắp, đóng gói máy lạnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phí: 300.000đ/bộ.						
+Bao gồm: Dịch vụ tháo lắp và đóng gói điều hòa máy lạnh chuyên nghiệp, đảm bảo an toàn trong suốt quá trình di chuyển.						</t>
+  </si>
+  <si>
+    <t>Tháo lắp, đóng gói</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tháo lắp, đóng gói các đồ vật khác		
+150.000đ/bộ cho các đồ vật nhỏ &lt;=5kg		
+300.000đ/bộ cho các đồ vật lớn &gt;6kg		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phí: 150.000đ/bộ cho các đồ vật nhỏ &lt;=5kg, 300.000đ/bộ cho các đồ vật lớn &gt;6kg.					
+Bao gồm: Dịch vụ tháo lắp và đóng gói các đồ vật khác như tủ, kệ, đồ điện tử, đảm bảo an toàn khi vận chuyển.					</t>
+  </si>
+  <si>
+    <t>Dịch vụ bảo vệ hàng hóa đặc biệt</t>
+  </si>
+  <si>
+    <t>Giá trị tài sản (VNĐ)</t>
+  </si>
+  <si>
+    <t>Phí dịch vụ bảo vệ (VNĐ)</t>
+  </si>
+  <si>
+    <t>Dưới 50 triệu VNĐ</t>
+  </si>
+  <si>
+    <t>200.000đ</t>
+  </si>
+  <si>
+    <t>Từ 50 triệu - 100 triệu VNĐ</t>
+  </si>
+  <si>
+    <t>300.000đ</t>
+  </si>
+  <si>
+    <t>Từ 100 triệu - 200 triệu VNĐ</t>
+  </si>
+  <si>
+    <t>Trên 200 triệu VNĐ</t>
+  </si>
+  <si>
+    <t>500.000đ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phí chờ 60.000đ/h   </t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>Hỗ trợ tài xế 10.000đ/ng</t>
+  </si>
+  <si>
+    <t>Hỗ trợ bốc vác 10.000đ/ng</t>
+  </si>
+  <si>
+    <t>Chứng từ điện tử 5.000đ</t>
+  </si>
+  <si>
+    <t>Dịch vụ tư vấn phong thủy</t>
+  </si>
+  <si>
+    <t>Phí: 500.000đ/người</t>
+  </si>
+  <si>
+    <t>Thông báo xác nhận đặt đơn thành công</t>
+  </si>
+  <si>
+    <t>Title: Xác nhận đặt đơn</t>
+  </si>
+  <si>
+    <t>Body: Đơn hàng của bạn đã được đặt thành công! Chúng tôi sẽ sắp xếp tài xế và nhân viên bốc vác trong thời gian sớm nhất. Cảm ơn bạn đã tin tưởng sử dụng MoveMate.</t>
+  </si>
+  <si>
+    <t>Thông báo tài xế được gán đơn hàng</t>
+  </si>
+  <si>
+    <t>Title: Đã có tài xế nhận đơn hàng của bạn</t>
+  </si>
+  <si>
+    <t>Body: Tài xế [Tên tài xế] đã được gán để thực hiện đơn hàng của bạn. Bạn có thể theo dõi quá trình vận chuyển trong ứng dụng.</t>
+  </si>
+  <si>
+    <t>Thông báo tài xế đang đến</t>
+  </si>
+  <si>
+    <t>Title: Tài xế đang trên đường đến</t>
+  </si>
+  <si>
+    <t>Body: Tài xế [Tên tài xế] đang di chuyển đến địa chỉ của bạn. Vui lòng chuẩn bị để đón tiếp.</t>
+  </si>
+  <si>
+    <t>Thông báo tài xế đã đến</t>
+  </si>
+  <si>
+    <t>Title: Tài xế đã đến nơi</t>
+  </si>
+  <si>
+    <t>Body: Tài xế [Tên tài xế] đã có mặt tại địa chỉ của bạn. Việc vận chuyển sẽ được bắt đầu ngay khi bạn sẵn sàng.</t>
+  </si>
+  <si>
+    <t>Thông báo sự cố trong quá trình vận chuyển</t>
+  </si>
+  <si>
+    <t>Title: Đã xảy ra sự cố</t>
+  </si>
+  <si>
+    <t>Body: Đã có sự cố xảy ra trong quá trình vận chuyển. Tài xế sẽ liên hệ với bạn để giải quyết và cập nhật thông tin chi tiết.</t>
+  </si>
+  <si>
+    <t>Thông báo đơn hàng hoàn thành</t>
+  </si>
+  <si>
+    <t>Title: Đơn hàng đã hoàn tất</t>
+  </si>
+  <si>
+    <t>Body: Đơn hàng của bạn đã được giao thành công. Cảm ơn bạn đã sử dụng dịch vụ MoveMate. Bạn có thể đánh giá chất lượng dịch vụ ngay trong ứng dụng.</t>
+  </si>
+  <si>
+    <t>Thông báo thay đổi ngày vận chuyển</t>
+  </si>
+  <si>
+    <t>Title: Đã thay đổi ngày vận chuyển</t>
+  </si>
+  <si>
+    <t>Body: Đơn hàng của bạn đã được thay đổi lịch vận chuyển thành [ngày mới]. Nếu bạn có thắc mắc, vui lòng liên hệ với chúng tôi.</t>
+  </si>
+  <si>
+    <t>Thông báo yêu cầu thanh toán</t>
+  </si>
+  <si>
+    <t>Title: Yêu cầu thanh toán</t>
+  </si>
+  <si>
+    <t>Body: Đơn hàng của bạn yêu cầu thanh toán. Vui lòng hoàn tất thanh toán để tiếp tục quá trình vận chuyển.</t>
+  </si>
+  <si>
+    <t>Thông báo hủy đơn hàng</t>
+  </si>
+  <si>
+    <t>Title: Đơn hàng đã bị hủy</t>
+  </si>
+  <si>
+    <t>Body: Đơn hàng của bạn đã bị hủy theo yêu cầu. Nếu bạn muốn đặt lại, vui lòng truy cập ứng dụng để thực hiện.</t>
+  </si>
+  <si>
+    <t>Thông báo đăng ký làm bốc vác thành công</t>
+  </si>
+  <si>
+    <t>Title: Đăng ký làm bốc vác thành công</t>
+  </si>
+  <si>
+    <t>Body: Bạn đã đăng ký thành công làm bốc vác. Hãy chờ thông báo từ hệ thống về các công việc sắp tới.</t>
+  </si>
+  <si>
+    <t>Thông báo đặt lịch review thành công</t>
+  </si>
+  <si>
+    <t>Title: Đặt lịch review thành công</t>
+  </si>
+  <si>
+    <t>Body: Bạn đã đặt lịch cho reviewer đến nhà review thành công. Reviewer sẽ đến vào [ngày/thời gian] để tiến hành đánh giá.</t>
+  </si>
+  <si>
+    <t>Thông báo reviewer đang đến</t>
+  </si>
+  <si>
+    <t>Title: Reviewer đang trên đường đến</t>
+  </si>
+  <si>
+    <t>Body: Reviewer đang di chuyển đến địa chỉ [địa chỉ] và dự kiến sẽ có mặt vào lúc [thời gian]. Vui lòng chuẩn bị để tiếp đón.</t>
+  </si>
+  <si>
+    <t>Thông báo reviewer đã đến</t>
+  </si>
+  <si>
+    <t>Title: Reviewer đã đến nơi</t>
+  </si>
+  <si>
+    <t>Body: Reviewer đã có mặt tại [địa chỉ] và đang tiến hành đánh giá ngôi nhà của bạn.</t>
+  </si>
+  <si>
+    <t>Thông báo hoàn thành đánh giá nhà</t>
+  </si>
+  <si>
+    <t>Title: Hoàn thành đánh giá nhà</t>
+  </si>
+  <si>
+    <t>Body: Quá trình review nhà của bạn đã hoàn tất. Reviewer đã cung cấp đầy đủ thông tin và nhận xét về quá trình chuyển nhà. Bạn có thể tiến hành bước tiếp theo.</t>
+  </si>
+  <si>
+    <t>Thông báo cần cung cấp thêm thông tin trước khi review</t>
+  </si>
+  <si>
+    <t>Title: Cung cấp thêm thông tin cho review</t>
+  </si>
+  <si>
+    <t>Body: Vui lòng cung cấp thêm thông tin chi tiết về ngôi nhà (như kích thước, số tầng, tình trạng vật dụng) để reviewer có thể đánh giá chính xác.</t>
+  </si>
+  <si>
+    <t>Thông báo thay đổi lịch review</t>
+  </si>
+  <si>
+    <t>Title: Lịch review đã thay đổi</t>
+  </si>
+  <si>
+    <t>Body: Lịch review của bạn đã được điều chỉnh. Reviewer sẽ đến vào [ngày/thời gian mới]. Vui lòng xác nhận lại thông tin.</t>
+  </si>
+  <si>
+    <t>Thông báo hủy lịch review</t>
+  </si>
+  <si>
+    <t>Title: Lịch review đã bị hủy</t>
+  </si>
+  <si>
+    <t>Body: Lịch review tại [địa chỉ] đã bị hủy. Vui lòng liên hệ với chúng tôi để đặt lại lịch nếu cần.</t>
+  </si>
+  <si>
+    <t>Thông báo yêu cầu đánh giá reviewer</t>
+  </si>
+  <si>
+    <t>Title: Đánh giá reviewer</t>
+  </si>
+  <si>
+    <t>Body: Quá trình review nhà của bạn đã hoàn tất. Vui lòng đánh giá chất lượng dịch vụ của reviewer để chúng tôi có thể cải thiện dịch vụ tốt hơn.</t>
+  </si>
+  <si>
+    <t>Thông báo cần thay đổi thông tin nhà</t>
+  </si>
+  <si>
+    <t>Title: Cập nhật thông tin nhà cho review</t>
+  </si>
+  <si>
+    <t>Body: Vui lòng kiểm tra và cập nhật lại thông tin nhà nếu có thay đổi để reviewer có thể tiến hành đánh giá chính xác hơn.</t>
+  </si>
+  <si>
+    <t>Thông báo vấn đề khi review</t>
   </si>
 </sst>
 </file>
@@ -3080,7 +3196,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d-m"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -3212,8 +3328,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3244,8 +3365,14 @@
         <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="32">
     <border/>
     <border>
       <left/>
@@ -3559,11 +3686,41 @@
         <color rgb="FF284E3F"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="124">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -3868,9 +4025,72 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="29" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="30" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="29" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="6" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3938,7 +4158,7 @@
     <xdr:ext cx="876300" cy="676275"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3966,7 +4186,7 @@
     <xdr:ext cx="876300" cy="723900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3994,7 +4214,7 @@
     <xdr:ext cx="923925" cy="771525"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4022,7 +4242,7 @@
     <xdr:ext cx="5391150" cy="771525"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4050,7 +4270,7 @@
     <xdr:ext cx="5238750" cy="676275"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4115,7 +4335,7 @@
     <xdr:ext cx="3124200" cy="2686050"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png"/>
+        <xdr:cNvPr id="0" name="image10.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4143,7 +4363,7 @@
     <xdr:ext cx="4114800" cy="2552700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png"/>
+        <xdr:cNvPr id="0" name="image9.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4171,7 +4391,7 @@
     <xdr:ext cx="4581525" cy="2276475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png"/>
+        <xdr:cNvPr id="0" name="image6.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4199,7 +4419,7 @@
     <xdr:ext cx="3733800" cy="2619375"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png"/>
+        <xdr:cNvPr id="0" name="image7.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5735,216 +5955,493 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
-    <row r="2" ht="14.25" customHeight="1"/>
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="B2" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="B3" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="B4" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="B5" s="4" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1"/>
+      <c r="B5" s="123" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="B6" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
     <row r="7" ht="14.25" customHeight="1"/>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="6" t="s">
-        <v>450</v>
+      <c r="B8" s="59" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="B9" s="59" t="s">
-        <v>451</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1"/>
+        <v>513</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="B10" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="B11" s="4" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="B12" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="B13" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="B14" s="6" t="s">
-        <v>454</v>
+      <c r="B14" s="59" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="B15" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1"/>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="B16" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="B17" s="4" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1"/>
+      <c r="B17" s="123" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="B18" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
     <row r="19" ht="14.25" customHeight="1"/>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="B20" s="6" t="s">
-        <v>457</v>
+      <c r="B20" s="59" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="B21" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1"/>
+      <c r="B21" s="59" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="B22" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="B23" s="4" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="B24" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="B25" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="B26" s="6" t="s">
-        <v>459</v>
+      <c r="B26" s="59" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="B27" s="6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" customHeight="1"/>
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" ht="14.25" customHeight="1">
+      <c r="B28" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="B29" s="4" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" customHeight="1"/>
+      <c r="B29" s="123" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" customHeight="1">
+      <c r="B30" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
     <row r="31" ht="14.25" customHeight="1"/>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="B32" s="6" t="s">
-        <v>462</v>
+      <c r="B32" s="59" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="B33" s="6" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25" customHeight="1"/>
+      <c r="B33" s="59" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" customHeight="1">
+      <c r="B34" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="B35" s="4" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="B36" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" customHeight="1">
+      <c r="B37" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="B38" s="6" t="s">
-        <v>465</v>
+      <c r="B38" s="59" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="B39" s="6" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25" customHeight="1"/>
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" ht="14.25" customHeight="1">
+      <c r="B40" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="B41" s="4" t="s">
-        <v>467</v>
+      <c r="B41" s="123" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1">
+      <c r="B43" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="B44" s="6" t="s">
-        <v>468</v>
-      </c>
+      <c r="B44" s="6"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="B45" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
+      <c r="B45" s="59" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" customHeight="1">
+      <c r="B46" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" customHeight="1">
+      <c r="B47" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
     <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1">
+      <c r="B49" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" customHeight="1">
+      <c r="B50" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" customHeight="1">
+      <c r="B51" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
     <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1">
+      <c r="B53" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25" customHeight="1">
+      <c r="B54" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" customHeight="1">
+      <c r="B55" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
     <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1">
+      <c r="B57" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" customHeight="1">
+      <c r="B58" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" customHeight="1">
+      <c r="B59" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
     <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1">
+      <c r="B61" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25" customHeight="1">
+      <c r="B62" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" customHeight="1">
+      <c r="B63" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
     <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1">
+      <c r="B65" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25" customHeight="1">
+      <c r="B66" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25" customHeight="1">
+      <c r="B67" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
     <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1">
+      <c r="B69" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25" customHeight="1">
+      <c r="B70" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25" customHeight="1">
+      <c r="B71" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
     <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1">
+      <c r="B73" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25" customHeight="1">
+      <c r="B74" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25" customHeight="1">
+      <c r="B75" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
     <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1">
+      <c r="B77" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25" customHeight="1">
+      <c r="B78" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25" customHeight="1">
+      <c r="B79" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
     <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1">
+      <c r="B81" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25" customHeight="1">
+      <c r="B82" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
     <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1">
+      <c r="B84" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
     <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1">
+      <c r="B86" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25" customHeight="1">
+      <c r="B87" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25" customHeight="1">
+      <c r="B88" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
     <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1">
+      <c r="B90" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25" customHeight="1">
+      <c r="B91" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25" customHeight="1">
+      <c r="B92" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
     <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1">
+      <c r="B94" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="95" ht="14.25" customHeight="1">
+      <c r="B95" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="96" ht="14.25" customHeight="1">
+      <c r="B96" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
     <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1">
+      <c r="B98" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="99" ht="14.25" customHeight="1">
+      <c r="B99" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25" customHeight="1">
+      <c r="B100" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
     <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1">
+      <c r="B102" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="103" ht="14.25" customHeight="1">
+      <c r="B103" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="104" ht="14.25" customHeight="1">
+      <c r="B104" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
     <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1">
+      <c r="B106" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="107" ht="14.25" customHeight="1">
+      <c r="B107" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="108" ht="14.25" customHeight="1">
+      <c r="B108" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
     <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1">
+      <c r="B110" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="111" ht="14.25" customHeight="1">
+      <c r="B111" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="112" ht="14.25" customHeight="1">
+      <c r="B112" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
     <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1">
+      <c r="B114" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="115" ht="14.25" customHeight="1">
+      <c r="B115" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="116" ht="14.25" customHeight="1">
+      <c r="B116" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
     <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1">
+      <c r="B118" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="119" ht="14.25" customHeight="1">
+      <c r="B119" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="120" ht="14.25" customHeight="1">
+      <c r="B120" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
     <row r="121" ht="14.25" customHeight="1"/>
     <row r="122" ht="14.25" customHeight="1"/>
     <row r="123" ht="14.25" customHeight="1"/>
@@ -42881,101 +43378,102 @@
         <v>398</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
     <row r="11">
       <c r="A11" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B11" s="3" t="s">
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" s="3" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
         <v>404</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="E14" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>410</v>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
         <v>411</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
-        <v>414</v>
-      </c>
+      <c r="A29" s="3"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="34">
@@ -42985,95 +43483,114 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="s">
-        <v>419</v>
+      <c r="A36" s="101"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="101"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="3" t="s">
+    <row r="41">
+      <c r="A41" s="3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="56" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="70" t="s">
+    <row r="42">
+      <c r="A42" s="101"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B48" s="70" t="s">
-        <v>400</v>
-      </c>
-      <c r="C48" s="70" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="C49" s="101" t="s">
+    </row>
+    <row r="51">
+      <c r="B51" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E49" s="102"/>
-    </row>
-    <row r="50">
-      <c r="E50" s="102"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="56" t="s">
-        <v>426</v>
-      </c>
-      <c r="E51" s="102"/>
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="56" t="s">
         <v>427</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="C52" s="3" t="s">
+    </row>
+    <row r="54">
+      <c r="A54" s="70" t="s">
         <v>428</v>
       </c>
-      <c r="E52" s="102"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="3" t="s">
+      <c r="B54" s="70" t="s">
         <v>429</v>
+      </c>
+      <c r="C54" s="70" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>430</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C55" s="102" t="s">
+        <v>433</v>
+      </c>
+      <c r="E55" s="103"/>
+    </row>
+    <row r="56">
+      <c r="E56" s="103"/>
     </row>
     <row r="57">
-      <c r="E57" s="3"/>
+      <c r="A57" s="56" t="s">
+        <v>434</v>
+      </c>
+      <c r="E57" s="103"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E58" s="103"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="E63" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -43089,30 +43606,36 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="27.0"/>
+    <col customWidth="1" min="2" max="2" width="22.71"/>
+    <col customWidth="1" min="3" max="4" width="21.86"/>
+    <col customWidth="1" min="10" max="10" width="25.14"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="74" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="78" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="78" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="78" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="78" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6">
@@ -43120,37 +43643,37 @@
     </row>
     <row r="7">
       <c r="A7" s="74" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="78" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="78" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="78" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="78" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="78" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="78" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14">
@@ -43158,30 +43681,537 @@
     </row>
     <row r="15">
       <c r="A15" s="74" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="78" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="78" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="78" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="78" t="s">
-        <v>447</v>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="104" t="s">
+        <v>457</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="104" t="s">
+        <v>458</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="105" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="106" t="s">
+        <v>460</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="106" t="s">
+        <v>461</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="107" t="s">
+        <v>462</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q24" s="59" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="24"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="108"/>
+      <c r="O25" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q25" s="109" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="22"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="110"/>
+      <c r="O26" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="106" t="s">
+        <v>468</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="106" t="s">
+        <v>469</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="107" t="s">
+        <v>462</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="24"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="108"/>
+      <c r="O28" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="22"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="110"/>
+      <c r="O29" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="106" t="s">
+        <v>473</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="106" t="s">
+        <v>474</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="107" t="s">
+        <v>462</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="22"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="110"/>
+      <c r="O31" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="106" t="s">
+        <v>477</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="111" t="s">
+        <v>478</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="107" t="s">
+        <v>462</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="24"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="108"/>
+      <c r="O33" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="24"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="108"/>
+      <c r="O34" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="22"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="110"/>
+      <c r="O35" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="106" t="s">
+        <v>482</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="106" t="s">
+        <v>483</v>
+      </c>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="107" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="24"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="108"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="22"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="110"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="106" t="s">
+        <v>484</v>
+      </c>
+      <c r="B39" s="21"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="106" t="s">
+        <v>485</v>
+      </c>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="107" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="40" ht="30.0" customHeight="1">
+      <c r="A40" s="22"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="110"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="106" t="s">
+        <v>486</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="106" t="s">
+        <v>487</v>
+      </c>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="112" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="22"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="110"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="106" t="s">
+        <v>489</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="106" t="s">
+        <v>490</v>
+      </c>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="112" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="24"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="24"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="108"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="22"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="110"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="106" t="s">
+        <v>491</v>
+      </c>
+      <c r="B46" s="113"/>
+      <c r="K46" s="112" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="114" t="s">
+        <v>492</v>
+      </c>
+      <c r="B47" s="115" t="s">
+        <v>493</v>
+      </c>
+      <c r="K47" s="108"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="116" t="s">
+        <v>494</v>
+      </c>
+      <c r="B48" s="117" t="s">
+        <v>495</v>
+      </c>
+      <c r="K48" s="108"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="116" t="s">
+        <v>496</v>
+      </c>
+      <c r="B49" s="117" t="s">
+        <v>497</v>
+      </c>
+      <c r="K49" s="108"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="116" t="s">
+        <v>498</v>
+      </c>
+      <c r="B50" s="117" t="s">
+        <v>273</v>
+      </c>
+      <c r="K50" s="108"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="118" t="s">
+        <v>499</v>
+      </c>
+      <c r="B51" s="119" t="s">
+        <v>500</v>
+      </c>
+      <c r="K51" s="110"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="118" t="s">
+        <v>501</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="K52" s="120" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="121" t="s">
+        <v>503</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="K53" s="120" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="122" t="s">
+        <v>504</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="K54" s="120" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="122" t="s">
+        <v>505</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="K55" s="120" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="122" t="s">
+        <v>506</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="D56" s="122" t="s">
+        <v>507</v>
+      </c>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="120" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A36:C38"/>
+    <mergeCell ref="A39:C40"/>
+    <mergeCell ref="A41:C42"/>
+    <mergeCell ref="A43:C45"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="K36:K38"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="K46:K51"/>
+    <mergeCell ref="A32:C35"/>
+    <mergeCell ref="D32:J35"/>
+    <mergeCell ref="D39:J40"/>
+    <mergeCell ref="D41:J42"/>
+    <mergeCell ref="D43:J45"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J26"/>
+    <mergeCell ref="D27:J29"/>
+    <mergeCell ref="A24:C26"/>
+    <mergeCell ref="A27:C29"/>
+    <mergeCell ref="D30:J31"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D36:J38"/>
+    <mergeCell ref="D56:J56"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Report/do an.xlsx
+++ b/Report/do an.xlsx
@@ -13,6 +13,7 @@
     <sheet state="visible" name="Sheet3" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="Sheet4" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="msg" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="rule chọn tài xế" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">Estimate!$A$1:$E$32</definedName>
@@ -20,14 +21,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataChecksum="V6SNANVit/Q3hY9fEi5KzOUlYY9DTk4W/VD50w2rCoM="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataChecksum="T/0uoDppQati9Udzk42db0fg1Cco7gSdZ8+64lsCClY="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="588">
   <si>
     <t>Nhập: số tầng, loại nhà, diện tích và số phòng</t>
   </si>
@@ -3187,6 +3188,72 @@
   </si>
   <si>
     <t>Thông báo vấn đề khi review</t>
+  </si>
+  <si>
+    <t>Quy Tắc Chọn Tài Xế Cho Booking</t>
+  </si>
+  <si>
+    <t>1. Tiêu Chí Khoảng Cách Gần Nhất</t>
+  </si>
+  <si>
+    <t>Xác định vị trí hiện tại của tài xế: Dựa vào hệ thống GPS tích hợp, hệ thống sẽ lấy vị trí hiện tại của các tài xế có sẵn.</t>
+  </si>
+  <si>
+    <t>Đo khoảng cách từ vị trí tài xế đến vị trí của booking mới: Sử dụng Google Maps API hoặc một công cụ tương tự để tính toán khoảng cách chính xác (theo đường đi) từ vị trí tài xế đến vị trí khách hàng yêu cầu.</t>
+  </si>
+  <si>
+    <t>Lựa chọn tài xế gần nhất: Ưu tiên tài xế có khoảng cách ngắn nhất đến vị trí khách hàng tại thời điểm hiện tại.</t>
+  </si>
+  <si>
+    <t>2. Tiêu Chí Thời Gian Rảnh Sắp Tới</t>
+  </si>
+  <si>
+    <t>Xác định thời gian kết thúc booking trước đó của tài xế: Hệ thống theo dõi lịch làm việc của tài xế và biết được thời gian kết thúc của booking hiện tại hoặc booking gần nhất mà tài xế thực hiện.</t>
+  </si>
+  <si>
+    <t>Dự đoán thời gian rảnh: Dựa trên thời gian kết thúc dự kiến của booking hiện tại (hoặc gần nhất), hệ thống tính toán thời gian rảnh sắp tới của tài xế, tức là khoảng thời gian mà tài xế có thể nhận thêm booking mới.</t>
+  </si>
+  <si>
+    <t>Kiểm tra xem tài xế có rảnh không: Tài xế chỉ có thể được chọn nếu thời gian rảnh của họ khớp với yêu cầu thời gian booking mới của khách hàng.</t>
+  </si>
+  <si>
+    <t>4. Quy Trình Chọn Tài Xế Cho Booking Mới:</t>
+  </si>
+  <si>
+    <t>Bước 1: Hệ thống xác định danh sách các tài xế sẵn sàng nhận cuốc và đo khoảng cách từ vị trí của họ đến vị trí booking mới.</t>
+  </si>
+  <si>
+    <t>Bước 2: Lọc danh sách tài xế theo khoảng cách gần nhất.</t>
+  </si>
+  <si>
+    <t>hoặc nếu không có tài xế đang rảnh</t>
+  </si>
+  <si>
+    <t>Bước 1: Kiểm tra thời gian rảnh sắp tới của tài xế, dựa trên thời gian kết thúc booking trước đó.</t>
+  </si>
+  <si>
+    <t>Bước 2: Chọn tài xế có thời gian rảnh khớp với yêu cầu booking và khoảng cách gần nhất.</t>
+  </si>
+  <si>
+    <t>5. Trường Hợp Đặc Biệt:</t>
+  </si>
+  <si>
+    <t>Nếu không có tài xế nào có khoảng cách gần và thời gian rảnh phù hợp: Hệ thống sẽ hiển thị thông báo yêu cầu khách hàng chờ thêm 30p hoặc đề xuất thời gian rảnh tiếp theo của tài xế gần nhất.</t>
+  </si>
+  <si>
+    <t>ƯỚC LƯỢNG THỜI GIAN HOÀN THÀNH 1 BOOKING</t>
+  </si>
+  <si>
+    <t>Ước lượng thời gian hoàn thành công việc: Hệ thống có thể ước tính thời gian hoàn thành dựa trên:</t>
+  </si>
+  <si>
+    <t>Khoảng cách di chuyển: Sử dụng bản đồ và khoảng cách giữa điểm nhận và điểm giao hàng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khối lượng công việc: Dựa trên thời gian thực mà tài xế và bốc vác cập nhật status, thời gian bốc dỡ </t>
+  </si>
+  <si>
+    <t>Tính thời gian kết thúc dự kiến: Dựa trên thời gian bắt đầu và ước lượng thời gian hoàn thành, hệ thống có thể tính toán được thời gian tài xế sẽ kết thúc công việc hiện tại.</t>
   </si>
 </sst>
 </file>
@@ -4158,7 +4225,7 @@
     <xdr:ext cx="876300" cy="676275"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPr id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4242,7 +4309,7 @@
     <xdr:ext cx="5391150" cy="771525"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4270,7 +4337,7 @@
     <xdr:ext cx="5238750" cy="676275"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4295,6 +4362,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
@@ -4307,7 +4378,7 @@
     <xdr:ext cx="4171950" cy="2686050"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png"/>
+        <xdr:cNvPr id="0" name="image6.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4363,7 +4434,7 @@
     <xdr:ext cx="4114800" cy="2552700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png"/>
+        <xdr:cNvPr id="0" name="image8.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4391,7 +4462,7 @@
     <xdr:ext cx="4581525" cy="2276475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png"/>
+        <xdr:cNvPr id="0" name="image9.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7326,6 +7397,132 @@
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="74" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="56" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="56" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="56" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="14" ht="22.5" customHeight="1">
+      <c r="A14" s="102" t="s">
+        <v>578</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="56" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" s="56" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:A15"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -44178,39 +44375,39 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="A24:C26"/>
+    <mergeCell ref="D24:J26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="D27:J29"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="D39:J40"/>
+    <mergeCell ref="D41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="D43:J45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="K46:K51"/>
+    <mergeCell ref="D30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="D32:J35"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="D36:J38"/>
+    <mergeCell ref="K36:K38"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="A27:C29"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="A32:C35"/>
     <mergeCell ref="A36:C38"/>
     <mergeCell ref="A39:C40"/>
     <mergeCell ref="A41:C42"/>
     <mergeCell ref="A43:C45"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="K36:K38"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="K46:K51"/>
-    <mergeCell ref="A32:C35"/>
-    <mergeCell ref="D32:J35"/>
-    <mergeCell ref="D39:J40"/>
-    <mergeCell ref="D41:J42"/>
-    <mergeCell ref="D43:J45"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J26"/>
-    <mergeCell ref="D27:J29"/>
-    <mergeCell ref="A24:C26"/>
-    <mergeCell ref="A27:C29"/>
-    <mergeCell ref="D30:J31"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D36:J38"/>
-    <mergeCell ref="D56:J56"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
